--- a/Code/Results/Cases/Case_4_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_49/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.65111467412486</v>
+        <v>21.65111467412487</v>
       </c>
       <c r="C2">
-        <v>18.9710180511719</v>
+        <v>18.97101805117192</v>
       </c>
       <c r="D2">
-        <v>7.23278828508392</v>
+        <v>7.232788285083826</v>
       </c>
       <c r="E2">
-        <v>6.294902186297237</v>
+        <v>6.29490218629733</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.75636020294893</v>
+        <v>35.75636020294887</v>
       </c>
       <c r="H2">
-        <v>29.5462865675835</v>
+        <v>29.54628656758347</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.861716268177439</v>
+        <v>9.86171626817743</v>
       </c>
       <c r="L2">
-        <v>15.78929188296528</v>
+        <v>15.78929188296526</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.07750056913958</v>
+        <v>20.07750056913968</v>
       </c>
       <c r="C3">
-        <v>17.57558427314327</v>
+        <v>17.57558427314335</v>
       </c>
       <c r="D3">
-        <v>6.7048151208326</v>
+        <v>6.704815120832578</v>
       </c>
       <c r="E3">
-        <v>6.203691578731346</v>
+        <v>6.203691578731445</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>33.89651821276179</v>
+        <v>33.89651821276174</v>
       </c>
       <c r="H3">
-        <v>28.25738824592029</v>
+        <v>28.25738824592024</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.36343669486533</v>
+        <v>9.363436694865349</v>
       </c>
       <c r="L3">
-        <v>14.67600007188955</v>
+        <v>14.67600007188958</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.06535551218962</v>
+        <v>19.06535551218973</v>
       </c>
       <c r="C4">
-        <v>16.67991552219319</v>
+        <v>16.67991552219307</v>
       </c>
       <c r="D4">
-        <v>6.365735120978125</v>
+        <v>6.3657351209782</v>
       </c>
       <c r="E4">
-        <v>6.150944340601132</v>
+        <v>6.150944340600979</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.74431923165304</v>
+        <v>32.74431923165298</v>
       </c>
       <c r="H4">
-        <v>27.46805198053563</v>
+        <v>27.46805198053549</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.055015426852862</v>
+        <v>9.055015426852892</v>
       </c>
       <c r="L4">
-        <v>13.96069660161065</v>
+        <v>13.96069660161072</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.64106857009254</v>
+        <v>18.64106857009243</v>
       </c>
       <c r="C5">
-        <v>16.30487365223238</v>
+        <v>16.30487365223246</v>
       </c>
       <c r="D5">
-        <v>6.225250919817625</v>
+        <v>6.225250919817674</v>
       </c>
       <c r="E5">
-        <v>6.130232192755332</v>
+        <v>6.130232192755228</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.27243807366403</v>
+        <v>32.272438073664</v>
       </c>
       <c r="H5">
-        <v>27.14701878532951</v>
+        <v>27.14701878532953</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.928796697847446</v>
+        <v>8.928796697847389</v>
       </c>
       <c r="L5">
-        <v>13.66103340216219</v>
+        <v>13.66103340216218</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,22 +567,22 @@
         <v>18.5698938916229</v>
       </c>
       <c r="C6">
-        <v>16.24198364391343</v>
+        <v>16.24198364391344</v>
       </c>
       <c r="D6">
-        <v>6.205138939689501</v>
+        <v>6.205138939689536</v>
       </c>
       <c r="E6">
-        <v>6.126839215746712</v>
+        <v>6.126839215746797</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>32.19394946069158</v>
+        <v>32.19394946069159</v>
       </c>
       <c r="H6">
-        <v>27.09375382335987</v>
+        <v>27.09375382335991</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.907809073608192</v>
+        <v>8.907809073608215</v>
       </c>
       <c r="L6">
-        <v>13.61077582496137</v>
+        <v>13.61077582496131</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.05968167820742</v>
+        <v>19.05968167820743</v>
       </c>
       <c r="C7">
-        <v>16.6748986147484</v>
+        <v>16.67489861474832</v>
       </c>
       <c r="D7">
-        <v>6.363835434532048</v>
+        <v>6.363835434531976</v>
       </c>
       <c r="E7">
-        <v>6.150661886134292</v>
+        <v>6.150661886134247</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.73796441069962</v>
+        <v>32.73796441069957</v>
       </c>
       <c r="H7">
-        <v>27.46371968026941</v>
+        <v>27.46371968026934</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.053315221808212</v>
+        <v>9.053315221808219</v>
       </c>
       <c r="L7">
-        <v>13.95668856220005</v>
+        <v>13.95668856220006</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.11789229336032</v>
+        <v>21.11789229336028</v>
       </c>
       <c r="C8">
-        <v>18.49776499258907</v>
+        <v>18.49776499258916</v>
       </c>
       <c r="D8">
-        <v>7.053774024886581</v>
+        <v>7.053774024886629</v>
       </c>
       <c r="E8">
-        <v>6.262754464136459</v>
+        <v>6.262754464136598</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.11731189500297</v>
+        <v>35.11731189500296</v>
       </c>
       <c r="H8">
         <v>29.1014947020292</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.690465822319478</v>
+        <v>9.69046582231951</v>
       </c>
       <c r="L8">
-        <v>15.41189513180957</v>
+        <v>15.41189513180951</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.8035061716107</v>
+        <v>24.80350617161065</v>
       </c>
       <c r="C9">
-        <v>21.7779632828512</v>
+        <v>21.77796328285121</v>
       </c>
       <c r="D9">
-        <v>8.293449242246782</v>
+        <v>8.293449242246753</v>
       </c>
       <c r="E9">
-        <v>6.51018452629057</v>
+        <v>6.5101845262905</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.69873522066279</v>
+        <v>39.6987352206628</v>
       </c>
       <c r="H9">
         <v>32.32851603891705</v>
@@ -708,7 +708,7 @@
         <v>10.9182385918662</v>
       </c>
       <c r="L9">
-        <v>18.02346067226877</v>
+        <v>18.02346067226879</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.31980632970841</v>
+        <v>27.31980632970842</v>
       </c>
       <c r="C10">
-        <v>24.03066596620269</v>
+        <v>24.0306659662029</v>
       </c>
       <c r="D10">
-        <v>9.143005869201222</v>
+        <v>9.143005869201177</v>
       </c>
       <c r="E10">
-        <v>6.711619311370598</v>
+        <v>6.711619311370703</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.01986494091653</v>
+        <v>43.01986494091661</v>
       </c>
       <c r="H10">
-        <v>34.71453175977866</v>
+        <v>34.71453175977873</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.93398927907759</v>
+        <v>11.93398927907757</v>
       </c>
       <c r="L10">
-        <v>19.81019983670309</v>
+        <v>19.81019983670308</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.42883567339081</v>
+        <v>28.42883567339091</v>
       </c>
       <c r="C11">
-        <v>25.02727655101646</v>
+        <v>25.02727655101632</v>
       </c>
       <c r="D11">
-        <v>9.518269892357541</v>
+        <v>9.518269892357663</v>
       </c>
       <c r="E11">
-        <v>6.808278516681431</v>
+        <v>6.808278516681408</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.52579800471494</v>
+        <v>44.52579800471514</v>
       </c>
       <c r="H11">
-        <v>35.80682853164291</v>
+        <v>35.80682853164307</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>12.42690033679</v>
       </c>
       <c r="L11">
-        <v>20.59855441682647</v>
+        <v>20.59855441682649</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.8442563702309</v>
+        <v>28.84425637023087</v>
       </c>
       <c r="C12">
-        <v>25.40121439636346</v>
+        <v>25.40121439636357</v>
       </c>
       <c r="D12">
-        <v>9.658967971844543</v>
+        <v>9.65896797184462</v>
       </c>
       <c r="E12">
-        <v>6.845680202408692</v>
+        <v>6.845680202408763</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>45.09600566923653</v>
+        <v>45.09600566923662</v>
       </c>
       <c r="H12">
-        <v>36.22192037441779</v>
+        <v>36.22192037441787</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.61171668131233</v>
+        <v>12.6117166813123</v>
       </c>
       <c r="L12">
-        <v>20.89398672504125</v>
+        <v>20.89398672504123</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.75497988304469</v>
+        <v>28.75497988304475</v>
       </c>
       <c r="C13">
-        <v>25.32082339613316</v>
+        <v>25.32082339613309</v>
       </c>
       <c r="D13">
-        <v>9.628725031017414</v>
+        <v>9.628725031017401</v>
       </c>
       <c r="E13">
-        <v>6.83758817245906</v>
+        <v>6.837588172459011</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.97319109971253</v>
+        <v>44.97319109971259</v>
       </c>
       <c r="H13">
-        <v>36.13244852588136</v>
+        <v>36.1324485258814</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.57199021312699</v>
+        <v>12.57199021312695</v>
       </c>
       <c r="L13">
-        <v>20.83049061767348</v>
+        <v>20.83049061767347</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.46309998081366</v>
+        <v>28.46309998081357</v>
       </c>
       <c r="C14">
         <v>25.05810616557142</v>
       </c>
       <c r="D14">
-        <v>9.529872094812045</v>
+        <v>9.529872094812015</v>
       </c>
       <c r="E14">
-        <v>6.811339074202619</v>
+        <v>6.811339074202598</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.57270597949539</v>
+        <v>44.57270597949521</v>
       </c>
       <c r="H14">
-        <v>35.84094576473647</v>
+        <v>35.84094576473631</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.44214044751646</v>
+        <v>12.4421404475165</v>
       </c>
       <c r="L14">
-        <v>20.62291932094489</v>
+        <v>20.62291932094488</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.28374220370554</v>
+        <v>28.28374220370555</v>
       </c>
       <c r="C15">
-        <v>24.89675339646907</v>
+        <v>24.89675339646924</v>
       </c>
       <c r="D15">
-        <v>9.469145345508487</v>
+        <v>9.469145345508595</v>
       </c>
       <c r="E15">
-        <v>6.795367303372286</v>
+        <v>6.795367303372216</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.32741282542499</v>
+        <v>44.3274128254251</v>
       </c>
       <c r="H15">
-        <v>35.66259928055537</v>
+        <v>35.66259928055545</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.36237296666742</v>
+        <v>12.36237296666748</v>
       </c>
       <c r="L15">
-        <v>20.49538564006695</v>
+        <v>20.49538564006701</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.24665886282293</v>
+        <v>27.2466588628229</v>
       </c>
       <c r="C16">
-        <v>23.96501688215713</v>
+        <v>23.96501688215715</v>
       </c>
       <c r="D16">
-        <v>9.118272786923889</v>
+        <v>9.118272786923923</v>
       </c>
       <c r="E16">
-        <v>6.705409730148183</v>
+        <v>6.70540973014816</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.92140076292299</v>
+        <v>42.92140076292291</v>
       </c>
       <c r="H16">
-        <v>34.64332284110662</v>
+        <v>34.64332284110656</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.90150365024784</v>
+        <v>11.90150365024787</v>
       </c>
       <c r="L16">
-        <v>19.75822102649468</v>
+        <v>19.7582210264947</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.60169596509249</v>
+        <v>26.60169596509243</v>
       </c>
       <c r="C17">
         <v>23.38660593262214</v>
       </c>
       <c r="D17">
-        <v>8.900289820612603</v>
+        <v>8.900289820612572</v>
       </c>
       <c r="E17">
-        <v>6.651560774665855</v>
+        <v>6.651560774665871</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.05800145141632</v>
+        <v>42.0580014514161</v>
       </c>
       <c r="H17">
-        <v>34.02007917266339</v>
+        <v>34.02007917266319</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.61520285894531</v>
+        <v>11.61520285894525</v>
       </c>
       <c r="L17">
-        <v>19.30000789940123</v>
+        <v>19.30000789940119</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.22733510848084</v>
+        <v>26.22733510848089</v>
       </c>
       <c r="C18">
-        <v>23.05122844367851</v>
+        <v>23.0512284436786</v>
       </c>
       <c r="D18">
-        <v>8.77384322116886</v>
+        <v>8.773843221168889</v>
       </c>
       <c r="E18">
-        <v>6.621056001411247</v>
+        <v>6.621056001411294</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.56088815214884</v>
+        <v>41.5608881521489</v>
       </c>
       <c r="H18">
-        <v>33.66221667294933</v>
+        <v>33.66221667294936</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.44913438587303</v>
+        <v>11.44913438587299</v>
       </c>
       <c r="L18">
-        <v>19.03412676679729</v>
+        <v>19.03412676679732</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.09998362107665</v>
+        <v>26.09998362107677</v>
       </c>
       <c r="C19">
-        <v>22.93719680256427</v>
+        <v>22.93719680256417</v>
       </c>
       <c r="D19">
-        <v>8.730841341481653</v>
+        <v>8.73084134148173</v>
       </c>
       <c r="E19">
-        <v>6.61080584228923</v>
+        <v>6.610805842289211</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.39247066108473</v>
+        <v>41.39247066108481</v>
       </c>
       <c r="H19">
-        <v>33.54114370787243</v>
+        <v>33.54114370787248</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.39265929573976</v>
+        <v>11.39265929573975</v>
       </c>
       <c r="L19">
-        <v>18.94369244027603</v>
+        <v>18.94369244027608</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.6707008538058</v>
+        <v>26.67070085380568</v>
       </c>
       <c r="C20">
-        <v>23.4484532851994</v>
+        <v>23.44845328519966</v>
       </c>
       <c r="D20">
-        <v>8.923603694343909</v>
+        <v>8.923603694343955</v>
       </c>
       <c r="E20">
-        <v>6.6572441730221</v>
+        <v>6.657244173022117</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.14996048317439</v>
+        <v>42.14996048317447</v>
       </c>
       <c r="H20">
-        <v>34.08635840914507</v>
+        <v>34.08635840914516</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.64582273865563</v>
+        <v>11.64582273865567</v>
       </c>
       <c r="L20">
-        <v>19.34902373564428</v>
+        <v>19.34902373564427</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.54895039574314</v>
+        <v>28.54895039574307</v>
       </c>
       <c r="C21">
-        <v>25.13536117324308</v>
+        <v>25.13536117324302</v>
       </c>
       <c r="D21">
-        <v>9.558943959235579</v>
+        <v>9.558943959235537</v>
       </c>
       <c r="E21">
-        <v>6.819026706106901</v>
+        <v>6.819026706106826</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.69033345740103</v>
+        <v>44.69033345740112</v>
       </c>
       <c r="H21">
-        <v>35.92652289017361</v>
+        <v>35.92652289017369</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.48032801938502</v>
+        <v>12.48032801938505</v>
       </c>
       <c r="L21">
-        <v>20.68396853135382</v>
+        <v>20.6839685313538</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.7503516155166</v>
+        <v>29.75035161551672</v>
       </c>
       <c r="C22">
-        <v>26.21805777529027</v>
+        <v>26.21805777529001</v>
       </c>
       <c r="D22">
-        <v>9.966100521605565</v>
+        <v>9.966100521605647</v>
       </c>
       <c r="E22">
-        <v>6.929464659342973</v>
+        <v>6.929464659342981</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>46.35075205482026</v>
+        <v>46.35075205482029</v>
       </c>
       <c r="H22">
-        <v>37.13804929767926</v>
+        <v>37.1380492976793</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.01516804094883</v>
+        <v>13.01516804094877</v>
       </c>
       <c r="L22">
-        <v>21.53860738780928</v>
+        <v>21.53860738780929</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.1113140292313</v>
+        <v>29.11131402923115</v>
       </c>
       <c r="C23">
-        <v>25.6417895820895</v>
+        <v>25.64178958208945</v>
       </c>
       <c r="D23">
-        <v>9.74945511546256</v>
+        <v>9.749455115462577</v>
       </c>
       <c r="E23">
-        <v>6.870062188741991</v>
+        <v>6.870062188741831</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.46426975427472</v>
+        <v>45.46426975427442</v>
       </c>
       <c r="H23">
-        <v>36.49042141991679</v>
+        <v>36.49042141991655</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.73057963830205</v>
+        <v>12.73057963830208</v>
       </c>
       <c r="L23">
-        <v>21.08394512861012</v>
+        <v>21.08394512861008</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.63951488428208</v>
+        <v>26.63951488428215</v>
       </c>
       <c r="C24">
-        <v>23.4205009902334</v>
+        <v>23.42050099023352</v>
       </c>
       <c r="D24">
-        <v>8.913067011931524</v>
+        <v>8.913067011931597</v>
       </c>
       <c r="E24">
-        <v>6.654673300926084</v>
+        <v>6.654673300926066</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.10838813520961</v>
+        <v>42.10838813520972</v>
       </c>
       <c r="H24">
-        <v>34.05639220249556</v>
+        <v>34.05639220249565</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.63198409018018</v>
+        <v>11.63198409018022</v>
       </c>
       <c r="L24">
-        <v>19.32687133215979</v>
+        <v>19.32687133215983</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.84186004522022</v>
+        <v>23.84186004522021</v>
       </c>
       <c r="C25">
-        <v>20.91998735051251</v>
+        <v>20.91998735051242</v>
       </c>
       <c r="D25">
-        <v>7.969464376369418</v>
+        <v>7.969464376369433</v>
       </c>
       <c r="E25">
-        <v>6.440023012551841</v>
+        <v>6.440023012551856</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.46825759747954</v>
+        <v>38.4682575974796</v>
       </c>
       <c r="H25">
-        <v>31.45365464352881</v>
+        <v>31.45365464352888</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.58854704707307</v>
+        <v>10.58854704707308</v>
       </c>
       <c r="L25">
-        <v>17.34139720272729</v>
+        <v>17.34139720272726</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_49/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.65111467412487</v>
+        <v>21.65111467412486</v>
       </c>
       <c r="C2">
-        <v>18.97101805117192</v>
+        <v>18.9710180511719</v>
       </c>
       <c r="D2">
-        <v>7.232788285083826</v>
+        <v>7.23278828508392</v>
       </c>
       <c r="E2">
-        <v>6.29490218629733</v>
+        <v>6.294902186297237</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.75636020294887</v>
+        <v>35.75636020294893</v>
       </c>
       <c r="H2">
-        <v>29.54628656758347</v>
+        <v>29.5462865675835</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.86171626817743</v>
+        <v>9.861716268177439</v>
       </c>
       <c r="L2">
-        <v>15.78929188296526</v>
+        <v>15.78929188296528</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.07750056913968</v>
+        <v>20.07750056913958</v>
       </c>
       <c r="C3">
-        <v>17.57558427314335</v>
+        <v>17.57558427314327</v>
       </c>
       <c r="D3">
-        <v>6.704815120832578</v>
+        <v>6.7048151208326</v>
       </c>
       <c r="E3">
-        <v>6.203691578731445</v>
+        <v>6.203691578731346</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>33.89651821276174</v>
+        <v>33.89651821276179</v>
       </c>
       <c r="H3">
-        <v>28.25738824592024</v>
+        <v>28.25738824592029</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.363436694865349</v>
+        <v>9.36343669486533</v>
       </c>
       <c r="L3">
-        <v>14.67600007188958</v>
+        <v>14.67600007188955</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.06535551218973</v>
+        <v>19.06535551218962</v>
       </c>
       <c r="C4">
-        <v>16.67991552219307</v>
+        <v>16.67991552219319</v>
       </c>
       <c r="D4">
-        <v>6.3657351209782</v>
+        <v>6.365735120978125</v>
       </c>
       <c r="E4">
-        <v>6.150944340600979</v>
+        <v>6.150944340601132</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.74431923165298</v>
+        <v>32.74431923165304</v>
       </c>
       <c r="H4">
-        <v>27.46805198053549</v>
+        <v>27.46805198053563</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.055015426852892</v>
+        <v>9.055015426852862</v>
       </c>
       <c r="L4">
-        <v>13.96069660161072</v>
+        <v>13.96069660161065</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.64106857009243</v>
+        <v>18.64106857009254</v>
       </c>
       <c r="C5">
-        <v>16.30487365223246</v>
+        <v>16.30487365223238</v>
       </c>
       <c r="D5">
-        <v>6.225250919817674</v>
+        <v>6.225250919817625</v>
       </c>
       <c r="E5">
-        <v>6.130232192755228</v>
+        <v>6.130232192755332</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.272438073664</v>
+        <v>32.27243807366403</v>
       </c>
       <c r="H5">
-        <v>27.14701878532953</v>
+        <v>27.14701878532951</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.928796697847389</v>
+        <v>8.928796697847446</v>
       </c>
       <c r="L5">
-        <v>13.66103340216218</v>
+        <v>13.66103340216219</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,22 +567,22 @@
         <v>18.5698938916229</v>
       </c>
       <c r="C6">
-        <v>16.24198364391344</v>
+        <v>16.24198364391343</v>
       </c>
       <c r="D6">
-        <v>6.205138939689536</v>
+        <v>6.205138939689501</v>
       </c>
       <c r="E6">
-        <v>6.126839215746797</v>
+        <v>6.126839215746712</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>32.19394946069159</v>
+        <v>32.19394946069158</v>
       </c>
       <c r="H6">
-        <v>27.09375382335991</v>
+        <v>27.09375382335987</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.907809073608215</v>
+        <v>8.907809073608192</v>
       </c>
       <c r="L6">
-        <v>13.61077582496131</v>
+        <v>13.61077582496137</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.05968167820743</v>
+        <v>19.05968167820742</v>
       </c>
       <c r="C7">
-        <v>16.67489861474832</v>
+        <v>16.6748986147484</v>
       </c>
       <c r="D7">
-        <v>6.363835434531976</v>
+        <v>6.363835434532048</v>
       </c>
       <c r="E7">
-        <v>6.150661886134247</v>
+        <v>6.150661886134292</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.73796441069957</v>
+        <v>32.73796441069962</v>
       </c>
       <c r="H7">
-        <v>27.46371968026934</v>
+        <v>27.46371968026941</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.053315221808219</v>
+        <v>9.053315221808212</v>
       </c>
       <c r="L7">
-        <v>13.95668856220006</v>
+        <v>13.95668856220005</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.11789229336028</v>
+        <v>21.11789229336032</v>
       </c>
       <c r="C8">
-        <v>18.49776499258916</v>
+        <v>18.49776499258907</v>
       </c>
       <c r="D8">
-        <v>7.053774024886629</v>
+        <v>7.053774024886581</v>
       </c>
       <c r="E8">
-        <v>6.262754464136598</v>
+        <v>6.262754464136459</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.11731189500296</v>
+        <v>35.11731189500297</v>
       </c>
       <c r="H8">
         <v>29.1014947020292</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.69046582231951</v>
+        <v>9.690465822319478</v>
       </c>
       <c r="L8">
-        <v>15.41189513180951</v>
+        <v>15.41189513180957</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.80350617161065</v>
+        <v>24.8035061716107</v>
       </c>
       <c r="C9">
-        <v>21.77796328285121</v>
+        <v>21.7779632828512</v>
       </c>
       <c r="D9">
-        <v>8.293449242246753</v>
+        <v>8.293449242246782</v>
       </c>
       <c r="E9">
-        <v>6.5101845262905</v>
+        <v>6.51018452629057</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.6987352206628</v>
+        <v>39.69873522066279</v>
       </c>
       <c r="H9">
         <v>32.32851603891705</v>
@@ -708,7 +708,7 @@
         <v>10.9182385918662</v>
       </c>
       <c r="L9">
-        <v>18.02346067226879</v>
+        <v>18.02346067226877</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.31980632970842</v>
+        <v>27.31980632970841</v>
       </c>
       <c r="C10">
-        <v>24.0306659662029</v>
+        <v>24.03066596620269</v>
       </c>
       <c r="D10">
-        <v>9.143005869201177</v>
+        <v>9.143005869201222</v>
       </c>
       <c r="E10">
-        <v>6.711619311370703</v>
+        <v>6.711619311370598</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.01986494091661</v>
+        <v>43.01986494091653</v>
       </c>
       <c r="H10">
-        <v>34.71453175977873</v>
+        <v>34.71453175977866</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.93398927907757</v>
+        <v>11.93398927907759</v>
       </c>
       <c r="L10">
-        <v>19.81019983670308</v>
+        <v>19.81019983670309</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.42883567339091</v>
+        <v>28.42883567339081</v>
       </c>
       <c r="C11">
-        <v>25.02727655101632</v>
+        <v>25.02727655101646</v>
       </c>
       <c r="D11">
-        <v>9.518269892357663</v>
+        <v>9.518269892357541</v>
       </c>
       <c r="E11">
-        <v>6.808278516681408</v>
+        <v>6.808278516681431</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.52579800471514</v>
+        <v>44.52579800471494</v>
       </c>
       <c r="H11">
-        <v>35.80682853164307</v>
+        <v>35.80682853164291</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>12.42690033679</v>
       </c>
       <c r="L11">
-        <v>20.59855441682649</v>
+        <v>20.59855441682647</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.84425637023087</v>
+        <v>28.8442563702309</v>
       </c>
       <c r="C12">
-        <v>25.40121439636357</v>
+        <v>25.40121439636346</v>
       </c>
       <c r="D12">
-        <v>9.65896797184462</v>
+        <v>9.658967971844543</v>
       </c>
       <c r="E12">
-        <v>6.845680202408763</v>
+        <v>6.845680202408692</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>45.09600566923662</v>
+        <v>45.09600566923653</v>
       </c>
       <c r="H12">
-        <v>36.22192037441787</v>
+        <v>36.22192037441779</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.6117166813123</v>
+        <v>12.61171668131233</v>
       </c>
       <c r="L12">
-        <v>20.89398672504123</v>
+        <v>20.89398672504125</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.75497988304475</v>
+        <v>28.75497988304469</v>
       </c>
       <c r="C13">
-        <v>25.32082339613309</v>
+        <v>25.32082339613316</v>
       </c>
       <c r="D13">
-        <v>9.628725031017401</v>
+        <v>9.628725031017414</v>
       </c>
       <c r="E13">
-        <v>6.837588172459011</v>
+        <v>6.83758817245906</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.97319109971259</v>
+        <v>44.97319109971253</v>
       </c>
       <c r="H13">
-        <v>36.1324485258814</v>
+        <v>36.13244852588136</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.57199021312695</v>
+        <v>12.57199021312699</v>
       </c>
       <c r="L13">
-        <v>20.83049061767347</v>
+        <v>20.83049061767348</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.46309998081357</v>
+        <v>28.46309998081366</v>
       </c>
       <c r="C14">
         <v>25.05810616557142</v>
       </c>
       <c r="D14">
-        <v>9.529872094812015</v>
+        <v>9.529872094812045</v>
       </c>
       <c r="E14">
-        <v>6.811339074202598</v>
+        <v>6.811339074202619</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.57270597949521</v>
+        <v>44.57270597949539</v>
       </c>
       <c r="H14">
-        <v>35.84094576473631</v>
+        <v>35.84094576473647</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.4421404475165</v>
+        <v>12.44214044751646</v>
       </c>
       <c r="L14">
-        <v>20.62291932094488</v>
+        <v>20.62291932094489</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.28374220370555</v>
+        <v>28.28374220370554</v>
       </c>
       <c r="C15">
-        <v>24.89675339646924</v>
+        <v>24.89675339646907</v>
       </c>
       <c r="D15">
-        <v>9.469145345508595</v>
+        <v>9.469145345508487</v>
       </c>
       <c r="E15">
-        <v>6.795367303372216</v>
+        <v>6.795367303372286</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.3274128254251</v>
+        <v>44.32741282542499</v>
       </c>
       <c r="H15">
-        <v>35.66259928055545</v>
+        <v>35.66259928055537</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.36237296666748</v>
+        <v>12.36237296666742</v>
       </c>
       <c r="L15">
-        <v>20.49538564006701</v>
+        <v>20.49538564006695</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.2466588628229</v>
+        <v>27.24665886282293</v>
       </c>
       <c r="C16">
-        <v>23.96501688215715</v>
+        <v>23.96501688215713</v>
       </c>
       <c r="D16">
-        <v>9.118272786923923</v>
+        <v>9.118272786923889</v>
       </c>
       <c r="E16">
-        <v>6.70540973014816</v>
+        <v>6.705409730148183</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.92140076292291</v>
+        <v>42.92140076292299</v>
       </c>
       <c r="H16">
-        <v>34.64332284110656</v>
+        <v>34.64332284110662</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.90150365024787</v>
+        <v>11.90150365024784</v>
       </c>
       <c r="L16">
-        <v>19.7582210264947</v>
+        <v>19.75822102649468</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.60169596509243</v>
+        <v>26.60169596509249</v>
       </c>
       <c r="C17">
         <v>23.38660593262214</v>
       </c>
       <c r="D17">
-        <v>8.900289820612572</v>
+        <v>8.900289820612603</v>
       </c>
       <c r="E17">
-        <v>6.651560774665871</v>
+        <v>6.651560774665855</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.0580014514161</v>
+        <v>42.05800145141632</v>
       </c>
       <c r="H17">
-        <v>34.02007917266319</v>
+        <v>34.02007917266339</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.61520285894525</v>
+        <v>11.61520285894531</v>
       </c>
       <c r="L17">
-        <v>19.30000789940119</v>
+        <v>19.30000789940123</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.22733510848089</v>
+        <v>26.22733510848084</v>
       </c>
       <c r="C18">
-        <v>23.0512284436786</v>
+        <v>23.05122844367851</v>
       </c>
       <c r="D18">
-        <v>8.773843221168889</v>
+        <v>8.77384322116886</v>
       </c>
       <c r="E18">
-        <v>6.621056001411294</v>
+        <v>6.621056001411247</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.5608881521489</v>
+        <v>41.56088815214884</v>
       </c>
       <c r="H18">
-        <v>33.66221667294936</v>
+        <v>33.66221667294933</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.44913438587299</v>
+        <v>11.44913438587303</v>
       </c>
       <c r="L18">
-        <v>19.03412676679732</v>
+        <v>19.03412676679729</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.09998362107677</v>
+        <v>26.09998362107665</v>
       </c>
       <c r="C19">
-        <v>22.93719680256417</v>
+        <v>22.93719680256427</v>
       </c>
       <c r="D19">
-        <v>8.73084134148173</v>
+        <v>8.730841341481653</v>
       </c>
       <c r="E19">
-        <v>6.610805842289211</v>
+        <v>6.61080584228923</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.39247066108481</v>
+        <v>41.39247066108473</v>
       </c>
       <c r="H19">
-        <v>33.54114370787248</v>
+        <v>33.54114370787243</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.39265929573975</v>
+        <v>11.39265929573976</v>
       </c>
       <c r="L19">
-        <v>18.94369244027608</v>
+        <v>18.94369244027603</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.67070085380568</v>
+        <v>26.6707008538058</v>
       </c>
       <c r="C20">
-        <v>23.44845328519966</v>
+        <v>23.4484532851994</v>
       </c>
       <c r="D20">
-        <v>8.923603694343955</v>
+        <v>8.923603694343909</v>
       </c>
       <c r="E20">
-        <v>6.657244173022117</v>
+        <v>6.6572441730221</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.14996048317447</v>
+        <v>42.14996048317439</v>
       </c>
       <c r="H20">
-        <v>34.08635840914516</v>
+        <v>34.08635840914507</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.64582273865567</v>
+        <v>11.64582273865563</v>
       </c>
       <c r="L20">
-        <v>19.34902373564427</v>
+        <v>19.34902373564428</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.54895039574307</v>
+        <v>28.54895039574314</v>
       </c>
       <c r="C21">
-        <v>25.13536117324302</v>
+        <v>25.13536117324308</v>
       </c>
       <c r="D21">
-        <v>9.558943959235537</v>
+        <v>9.558943959235579</v>
       </c>
       <c r="E21">
-        <v>6.819026706106826</v>
+        <v>6.819026706106901</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.69033345740112</v>
+        <v>44.69033345740103</v>
       </c>
       <c r="H21">
-        <v>35.92652289017369</v>
+        <v>35.92652289017361</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.48032801938505</v>
+        <v>12.48032801938502</v>
       </c>
       <c r="L21">
-        <v>20.6839685313538</v>
+        <v>20.68396853135382</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.75035161551672</v>
+        <v>29.7503516155166</v>
       </c>
       <c r="C22">
-        <v>26.21805777529001</v>
+        <v>26.21805777529027</v>
       </c>
       <c r="D22">
-        <v>9.966100521605647</v>
+        <v>9.966100521605565</v>
       </c>
       <c r="E22">
-        <v>6.929464659342981</v>
+        <v>6.929464659342973</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>46.35075205482029</v>
+        <v>46.35075205482026</v>
       </c>
       <c r="H22">
-        <v>37.1380492976793</v>
+        <v>37.13804929767926</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.01516804094877</v>
+        <v>13.01516804094883</v>
       </c>
       <c r="L22">
-        <v>21.53860738780929</v>
+        <v>21.53860738780928</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.11131402923115</v>
+        <v>29.1113140292313</v>
       </c>
       <c r="C23">
-        <v>25.64178958208945</v>
+        <v>25.6417895820895</v>
       </c>
       <c r="D23">
-        <v>9.749455115462577</v>
+        <v>9.74945511546256</v>
       </c>
       <c r="E23">
-        <v>6.870062188741831</v>
+        <v>6.870062188741991</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.46426975427442</v>
+        <v>45.46426975427472</v>
       </c>
       <c r="H23">
-        <v>36.49042141991655</v>
+        <v>36.49042141991679</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.73057963830208</v>
+        <v>12.73057963830205</v>
       </c>
       <c r="L23">
-        <v>21.08394512861008</v>
+        <v>21.08394512861012</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.63951488428215</v>
+        <v>26.63951488428208</v>
       </c>
       <c r="C24">
-        <v>23.42050099023352</v>
+        <v>23.4205009902334</v>
       </c>
       <c r="D24">
-        <v>8.913067011931597</v>
+        <v>8.913067011931524</v>
       </c>
       <c r="E24">
-        <v>6.654673300926066</v>
+        <v>6.654673300926084</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.10838813520972</v>
+        <v>42.10838813520961</v>
       </c>
       <c r="H24">
-        <v>34.05639220249565</v>
+        <v>34.05639220249556</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.63198409018022</v>
+        <v>11.63198409018018</v>
       </c>
       <c r="L24">
-        <v>19.32687133215983</v>
+        <v>19.32687133215979</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.84186004522021</v>
+        <v>23.84186004522022</v>
       </c>
       <c r="C25">
-        <v>20.91998735051242</v>
+        <v>20.91998735051251</v>
       </c>
       <c r="D25">
-        <v>7.969464376369433</v>
+        <v>7.969464376369418</v>
       </c>
       <c r="E25">
-        <v>6.440023012551856</v>
+        <v>6.440023012551841</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.4682575974796</v>
+        <v>38.46825759747954</v>
       </c>
       <c r="H25">
-        <v>31.45365464352888</v>
+        <v>31.45365464352881</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.58854704707308</v>
+        <v>10.58854704707307</v>
       </c>
       <c r="L25">
-        <v>17.34139720272726</v>
+        <v>17.34139720272729</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_49/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.65111467412486</v>
+        <v>21.65003971142261</v>
       </c>
       <c r="C2">
-        <v>18.9710180511719</v>
+        <v>18.96113314499403</v>
       </c>
       <c r="D2">
-        <v>7.23278828508392</v>
+        <v>7.23261497372255</v>
       </c>
       <c r="E2">
-        <v>6.294902186297237</v>
+        <v>6.295728957082991</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.75636020294893</v>
+        <v>34.8462451323401</v>
       </c>
       <c r="H2">
-        <v>29.5462865675835</v>
+        <v>35.79598361220639</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>29.50702105182518</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.861716268177439</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>15.78929188296528</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>9.860177777372918</v>
+      </c>
+      <c r="M2">
+        <v>15.78780952533581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.07750056913958</v>
+        <v>20.07681286644469</v>
       </c>
       <c r="C3">
-        <v>17.57558427314327</v>
+        <v>17.56663503950073</v>
       </c>
       <c r="D3">
-        <v>6.7048151208326</v>
+        <v>6.704703153774477</v>
       </c>
       <c r="E3">
-        <v>6.203691578731346</v>
+        <v>6.204600847525383</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>33.89651821276179</v>
+        <v>32.76423581546616</v>
       </c>
       <c r="H3">
-        <v>28.25738824592029</v>
+        <v>33.93465770534382</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>28.22117393122879</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.36343669486533</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>14.67600007188955</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>9.362042785516719</v>
+      </c>
+      <c r="M3">
+        <v>14.67480372698911</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.06535551218962</v>
+        <v>19.06489011143653</v>
       </c>
       <c r="C4">
-        <v>16.67991552219319</v>
+        <v>16.6715440326594</v>
       </c>
       <c r="D4">
-        <v>6.365735120978125</v>
+        <v>6.3656566925621</v>
       </c>
       <c r="E4">
-        <v>6.150944340601132</v>
+        <v>6.15191263639209</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.74431923165304</v>
+        <v>31.46076663126847</v>
       </c>
       <c r="H4">
-        <v>27.46805198053563</v>
+        <v>32.78159243836084</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>27.43378792560492</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.055015426852862</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>13.96069660161065</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>9.053707882190238</v>
+      </c>
+      <c r="M4">
+        <v>13.95967121165213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.64106857009254</v>
+        <v>18.64069039185202</v>
       </c>
       <c r="C5">
-        <v>16.30487365223238</v>
+        <v>16.29673899253914</v>
       </c>
       <c r="D5">
-        <v>6.225250919817625</v>
+        <v>6.225203977755081</v>
       </c>
       <c r="E5">
-        <v>6.130232192755332</v>
+        <v>6.131226628968694</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.27243807366403</v>
+        <v>30.9234607586634</v>
       </c>
       <c r="H5">
-        <v>27.14701878532951</v>
+        <v>32.30937069508531</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>27.11356870215442</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.928796697847446</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>13.66103340216219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>8.927523898425926</v>
+      </c>
+      <c r="M5">
+        <v>13.66007691126147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.5698938916229</v>
+        <v>18.56953000685043</v>
       </c>
       <c r="C6">
-        <v>16.24198364391343</v>
+        <v>16.23388840898435</v>
       </c>
       <c r="D6">
-        <v>6.205138939689501</v>
+        <v>6.20509363311447</v>
       </c>
       <c r="E6">
-        <v>6.126839215746712</v>
+        <v>6.127838117783934</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>32.19394946069158</v>
+        <v>30.83387926977898</v>
       </c>
       <c r="H6">
-        <v>27.09375382335987</v>
+        <v>32.23082631328153</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>27.06044005198617</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.907809073608192</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>13.61077582496137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>8.906542020513688</v>
+      </c>
+      <c r="M6">
+        <v>13.60983073949722</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.05968167820742</v>
+        <v>19.05921746677469</v>
       </c>
       <c r="C7">
-        <v>16.6748986147484</v>
+        <v>16.66653031284198</v>
       </c>
       <c r="D7">
-        <v>6.363835434532048</v>
+        <v>6.363757181882411</v>
       </c>
       <c r="E7">
-        <v>6.150661886134292</v>
+        <v>6.151630526050226</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.73796441069962</v>
+        <v>31.45354481878616</v>
       </c>
       <c r="H7">
-        <v>27.46371968026941</v>
+        <v>32.77523297227079</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>27.42946652535373</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.053315221808212</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>13.95668856220005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>9.05200814736447</v>
+      </c>
+      <c r="M7">
+        <v>13.95566410403569</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.11789229336032</v>
+        <v>21.11695441584285</v>
       </c>
       <c r="C8">
-        <v>18.49776499258907</v>
+        <v>18.48820241564416</v>
       </c>
       <c r="D8">
-        <v>7.053774024886581</v>
+        <v>7.053622819735889</v>
       </c>
       <c r="E8">
-        <v>6.262754464136459</v>
+        <v>6.263607935097344</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.11731189500297</v>
+        <v>34.13364356035501</v>
       </c>
       <c r="H8">
-        <v>29.1014947020292</v>
+        <v>35.15641502946642</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>29.06326534459466</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.690465822319478</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>15.41189513180957</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>9.688977787182402</v>
+      </c>
+      <c r="M8">
+        <v>15.4105126156387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.8035061716107</v>
+        <v>24.80148728768539</v>
       </c>
       <c r="C9">
-        <v>21.7779632828512</v>
+        <v>21.76605217973176</v>
       </c>
       <c r="D9">
-        <v>8.293449242246782</v>
+        <v>8.29311397677003</v>
       </c>
       <c r="E9">
-        <v>6.51018452629057</v>
+        <v>6.510878654395902</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.69873522066279</v>
+        <v>39.18992505281398</v>
       </c>
       <c r="H9">
-        <v>32.32851603891705</v>
+        <v>39.74174199159542</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>32.28308519116725</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.9182385918662</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>18.02346067226877</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>10.91636763807417</v>
+      </c>
+      <c r="M9">
+        <v>18.02131799379802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.31980632970841</v>
+        <v>27.31684861099579</v>
       </c>
       <c r="C10">
-        <v>24.03066596620269</v>
+        <v>24.01696877468697</v>
       </c>
       <c r="D10">
-        <v>9.143005869201222</v>
+        <v>9.142495875704013</v>
       </c>
       <c r="E10">
-        <v>6.711619311370598</v>
+        <v>6.712235545419628</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.01986494091653</v>
+        <v>42.79477097995769</v>
       </c>
       <c r="H10">
-        <v>34.71453175977866</v>
+        <v>43.06586004472267</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>34.66412755162083</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.93398927907759</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>19.81019983670309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>11.93177363523361</v>
+      </c>
+      <c r="M10">
+        <v>19.80742783190421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.42883567339081</v>
+        <v>28.42540374103119</v>
       </c>
       <c r="C11">
-        <v>25.02727655101646</v>
+        <v>25.01273661971628</v>
       </c>
       <c r="D11">
-        <v>9.518269892357541</v>
+        <v>9.517667419763498</v>
       </c>
       <c r="E11">
-        <v>6.808278516681431</v>
+        <v>6.808866985582513</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.52579800471494</v>
+        <v>44.416802374556</v>
       </c>
       <c r="H11">
-        <v>35.80682853164291</v>
+        <v>44.57316405348563</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>35.75421239072965</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.42690033679</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>20.59855441682647</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>12.42452217642695</v>
+      </c>
+      <c r="M11">
+        <v>20.59547034405361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.8442563702309</v>
+        <v>28.84063634703976</v>
       </c>
       <c r="C12">
-        <v>25.40121439636346</v>
+        <v>25.38634911397618</v>
       </c>
       <c r="D12">
-        <v>9.658967971844543</v>
+        <v>9.65832811710416</v>
       </c>
       <c r="E12">
-        <v>6.845680202408692</v>
+        <v>6.846259140696581</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>45.09600566923653</v>
+        <v>45.02920940001772</v>
       </c>
       <c r="H12">
-        <v>36.22192037441779</v>
+        <v>45.14389114979578</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>36.16847167586947</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.61171668131233</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>20.89398672504125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>12.60927455176368</v>
+      </c>
+      <c r="M12">
+        <v>20.89077963437982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.75497988304469</v>
+        <v>28.75140077986599</v>
       </c>
       <c r="C13">
-        <v>25.32082339613316</v>
+        <v>25.30602849574705</v>
       </c>
       <c r="D13">
-        <v>9.628725031017414</v>
+        <v>9.628093341547352</v>
       </c>
       <c r="E13">
-        <v>6.83758817245906</v>
+        <v>6.838169122028188</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.97319109971253</v>
+        <v>44.89738332104903</v>
       </c>
       <c r="H13">
-        <v>36.13244852588136</v>
+        <v>45.02096472298258</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>36.0791789508883</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.57199021312699</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>20.83049061767348</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>12.56956197986925</v>
+      </c>
+      <c r="M13">
+        <v>20.82731025778005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.46309998081366</v>
+        <v>28.45965275634044</v>
       </c>
       <c r="C14">
-        <v>25.05810616557142</v>
+        <v>25.04353960461711</v>
       </c>
       <c r="D14">
-        <v>9.529872094812045</v>
+        <v>9.529266597409316</v>
       </c>
       <c r="E14">
-        <v>6.811339074202619</v>
+        <v>6.8119267401636</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.57270597949539</v>
+        <v>44.46721690486019</v>
       </c>
       <c r="H14">
-        <v>35.84094576473647</v>
+        <v>44.62011476516828</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>35.78826104247639</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.44214044751646</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>20.62291932094489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>12.43975707707546</v>
+      </c>
+      <c r="M14">
+        <v>20.61982523204052</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.28374220370554</v>
+        <v>28.28037459052378</v>
       </c>
       <c r="C15">
-        <v>24.89675339646907</v>
+        <v>24.88232582578448</v>
       </c>
       <c r="D15">
-        <v>9.469145345508487</v>
+        <v>9.468555566980289</v>
       </c>
       <c r="E15">
-        <v>6.795367303372286</v>
+        <v>6.795959207018545</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.32741282542499</v>
+        <v>44.20351628397221</v>
       </c>
       <c r="H15">
-        <v>35.66259928055537</v>
+        <v>44.37459813025561</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>35.6102733791327</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.36237296666742</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>20.49538564006695</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>12.3600167391115</v>
+      </c>
+      <c r="M15">
+        <v>20.49234372516525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.24665886282293</v>
+        <v>27.2437310476725</v>
       </c>
       <c r="C16">
-        <v>23.96501688215713</v>
+        <v>23.95137400716521</v>
       </c>
       <c r="D16">
-        <v>9.118272786923889</v>
+        <v>9.117768536314873</v>
       </c>
       <c r="E16">
-        <v>6.705409730148183</v>
+        <v>6.706027923899562</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.92140076292299</v>
+        <v>42.6884671158945</v>
       </c>
       <c r="H16">
-        <v>34.64332284110662</v>
+        <v>42.9673063913008</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>34.59306402937276</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.90150365024784</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>19.75822102649468</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>11.89929832402567</v>
+      </c>
+      <c r="M16">
+        <v>19.75546880623528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.60169596509249</v>
+        <v>26.59902477224437</v>
       </c>
       <c r="C17">
-        <v>23.38660593262214</v>
+        <v>23.37343550180823</v>
       </c>
       <c r="D17">
-        <v>8.900289820612603</v>
+        <v>8.899834397282502</v>
       </c>
       <c r="E17">
-        <v>6.651560774665855</v>
+        <v>6.652196990192751</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.05800145141632</v>
+        <v>41.75492697814573</v>
       </c>
       <c r="H17">
-        <v>34.02007917266339</v>
+        <v>42.10312407404157</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>33.97110000437461</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.61520285894531</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>19.30000789940123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>11.61308647694882</v>
+      </c>
+      <c r="M17">
+        <v>19.29742606742532</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.22733510848084</v>
+        <v>26.22480720753232</v>
       </c>
       <c r="C18">
-        <v>23.05122844367851</v>
+        <v>23.03832703956489</v>
       </c>
       <c r="D18">
-        <v>8.77384322116886</v>
+        <v>8.773414694843549</v>
       </c>
       <c r="E18">
-        <v>6.621056001411247</v>
+        <v>6.621703314043637</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.56088815214884</v>
+        <v>41.21624408035152</v>
       </c>
       <c r="H18">
-        <v>33.66221667294933</v>
+        <v>41.60556158659928</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>33.61397843822235</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.44913438587303</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>19.03412676679729</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>11.44706801400971</v>
+      </c>
+      <c r="M18">
+        <v>19.03164059261453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.09998362107665</v>
+        <v>26.09750354220767</v>
       </c>
       <c r="C19">
-        <v>22.93719680256427</v>
+        <v>22.92438607064631</v>
       </c>
       <c r="D19">
-        <v>8.730841341481653</v>
+        <v>8.730421731179559</v>
       </c>
       <c r="E19">
-        <v>6.61080584228923</v>
+        <v>6.611457040731515</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.39247066108473</v>
+        <v>41.03353816742092</v>
       </c>
       <c r="H19">
-        <v>33.54114370787243</v>
+        <v>41.43699224898995</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>33.49315724212929</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.39265929573976</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>18.94369244027603</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>11.39060967525698</v>
+      </c>
+      <c r="M19">
+        <v>18.94123828173445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.6707008538058</v>
+        <v>26.66800280043516</v>
       </c>
       <c r="C20">
-        <v>23.4484532851994</v>
+        <v>23.4352328545857</v>
       </c>
       <c r="D20">
-        <v>8.923603694343909</v>
+        <v>8.923143199310136</v>
       </c>
       <c r="E20">
-        <v>6.6572441730221</v>
+        <v>6.657878395112952</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.14996048317439</v>
+        <v>41.85447883311974</v>
       </c>
       <c r="H20">
-        <v>34.08635840914507</v>
+        <v>42.19516634571927</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>34.03724252577407</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.64582273865563</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>19.34902373564428</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>11.6436970111316</v>
+      </c>
+      <c r="M20">
+        <v>19.34642401561597</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.54895039574314</v>
+        <v>28.5454646825064</v>
       </c>
       <c r="C21">
-        <v>25.13536117324308</v>
+        <v>25.1207277296903</v>
       </c>
       <c r="D21">
-        <v>9.558943959235579</v>
+        <v>9.558330837291598</v>
       </c>
       <c r="E21">
-        <v>6.819026706106901</v>
+        <v>6.819612373805888</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.69033345740103</v>
+        <v>44.59360958751534</v>
       </c>
       <c r="H21">
-        <v>35.92652289017361</v>
+        <v>44.73784940901126</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>35.87366626614796</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.48032801938502</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>20.68396853135382</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>12.47793154317217</v>
+      </c>
+      <c r="M21">
+        <v>20.68084924453161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.7503516155166</v>
+        <v>29.74630032441957</v>
       </c>
       <c r="C22">
-        <v>26.21805777529027</v>
+        <v>26.20246332544948</v>
       </c>
       <c r="D22">
-        <v>9.966100521605565</v>
+        <v>9.965373546848628</v>
       </c>
       <c r="E22">
-        <v>6.929464659342973</v>
+        <v>6.930024232483232</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>46.35075205482026</v>
+        <v>46.37368970664289</v>
       </c>
       <c r="H22">
-        <v>37.13804929767926</v>
+        <v>46.39977862076511</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>37.08277581404185</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.01516804094883</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>21.53860738780928</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>13.0125800553244</v>
+      </c>
+      <c r="M22">
+        <v>21.53511954374909</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.1113140292313</v>
+        <v>29.10756994353571</v>
       </c>
       <c r="C23">
-        <v>25.6417895820895</v>
+        <v>25.62671222399388</v>
       </c>
       <c r="D23">
-        <v>9.74945511546256</v>
+        <v>9.748790396200279</v>
       </c>
       <c r="E23">
-        <v>6.870062188741991</v>
+        <v>6.870635226115557</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.46426975427472</v>
+        <v>45.42424533788248</v>
       </c>
       <c r="H23">
-        <v>36.49042141991679</v>
+        <v>45.51249051757923</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>36.4364362105018</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.73057963830205</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>21.08394512861012</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>12.72809544234909</v>
+      </c>
+      <c r="M23">
+        <v>21.08065709814296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.63951488428208</v>
+        <v>26.63682898764548</v>
       </c>
       <c r="C24">
-        <v>23.4205009902334</v>
+        <v>23.40730317244882</v>
       </c>
       <c r="D24">
-        <v>8.913067011931524</v>
+        <v>8.91260881343765</v>
       </c>
       <c r="E24">
-        <v>6.654673300926084</v>
+        <v>6.655308421948092</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.10838813520961</v>
+        <v>41.80947765406019</v>
       </c>
       <c r="H24">
-        <v>34.05639220249556</v>
+        <v>42.15355636192476</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>34.00733811148782</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.63198409018018</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>19.32687133215979</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>11.62986259122926</v>
+      </c>
+      <c r="M24">
+        <v>19.32427970640325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.84186004522022</v>
+        <v>23.84015456459746</v>
       </c>
       <c r="C25">
-        <v>20.91998735051251</v>
+        <v>20.90871740835082</v>
       </c>
       <c r="D25">
-        <v>7.969464376369418</v>
+        <v>7.969184600799545</v>
       </c>
       <c r="E25">
-        <v>6.440023012551841</v>
+        <v>6.440753185477148</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.46825759747954</v>
+        <v>37.84281552718408</v>
       </c>
       <c r="H25">
-        <v>31.45365464352881</v>
+        <v>38.51018241956064</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>31.41011150065778</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.58854704707307</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>17.34139720272729</v>
+        <v>10.58678412571156</v>
+      </c>
+      <c r="M25">
+        <v>17.33946963950876</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_49/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.65003971142261</v>
+        <v>25.76854499102904</v>
       </c>
       <c r="C2">
-        <v>18.96113314499403</v>
+        <v>18.82138221632479</v>
       </c>
       <c r="D2">
-        <v>7.23261497372255</v>
+        <v>12.16762940617748</v>
       </c>
       <c r="E2">
-        <v>6.295728957082991</v>
+        <v>13.1642743821243</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>34.8462451323401</v>
+        <v>2.098178350838285</v>
       </c>
       <c r="H2">
-        <v>35.79598361220639</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>29.50702105182518</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.888623259959718</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>22.64245902028398</v>
       </c>
       <c r="L2">
-        <v>9.860177777372918</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>15.78780952533581</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>15.21413055129094</v>
+      </c>
+      <c r="O2">
+        <v>35.37138630509226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.07681286644469</v>
+        <v>24.1294190607629</v>
       </c>
       <c r="C3">
-        <v>17.56663503950073</v>
+        <v>17.5500773978817</v>
       </c>
       <c r="D3">
-        <v>6.704703153774477</v>
+        <v>11.64704119838744</v>
       </c>
       <c r="E3">
-        <v>6.204600847525383</v>
+        <v>12.61212859789613</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>32.76423581546616</v>
+        <v>2.112526486522507</v>
       </c>
       <c r="H3">
-        <v>33.93465770534382</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>28.22117393122879</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.809423915876502</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>21.25570884349222</v>
       </c>
       <c r="L3">
-        <v>9.362042785516719</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14.67480372698911</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>15.34729021276737</v>
+      </c>
+      <c r="O3">
+        <v>34.04223583151498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.06489011143653</v>
+        <v>23.09572535689043</v>
       </c>
       <c r="C4">
-        <v>16.6715440326594</v>
+        <v>16.74551996367233</v>
       </c>
       <c r="D4">
-        <v>6.3656566925621</v>
+        <v>11.32969617418735</v>
       </c>
       <c r="E4">
-        <v>6.15191263639209</v>
+        <v>12.27636444705477</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>31.46076663126847</v>
+        <v>2.121470147850116</v>
       </c>
       <c r="H4">
-        <v>32.78159243836084</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>27.43378792560492</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.765112719851858</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>20.38470861896596</v>
       </c>
       <c r="L4">
-        <v>9.053707882190238</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>13.95967121165213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>15.43523829741305</v>
+      </c>
+      <c r="O4">
+        <v>33.24328675643727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.64069039185202</v>
+        <v>22.66775594020013</v>
       </c>
       <c r="C5">
-        <v>16.29673899253914</v>
+        <v>16.41163210549061</v>
       </c>
       <c r="D5">
-        <v>6.225203977755081</v>
+        <v>11.20101925800968</v>
       </c>
       <c r="E5">
-        <v>6.131226628968694</v>
+        <v>12.14041831097226</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>30.9234607586634</v>
+        <v>2.125153775616144</v>
       </c>
       <c r="H5">
-        <v>32.30937069508531</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>27.11356870215442</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.748095157392514</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>20.02500343779809</v>
       </c>
       <c r="L5">
-        <v>8.927523898425926</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>13.66007691126147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>15.47254582095649</v>
+      </c>
+      <c r="O5">
+        <v>32.92202639124872</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.56953000685043</v>
+        <v>22.59629132906034</v>
       </c>
       <c r="C6">
-        <v>16.23388840898435</v>
+        <v>16.35582816578382</v>
       </c>
       <c r="D6">
-        <v>6.20509363311447</v>
+        <v>11.17969388099785</v>
       </c>
       <c r="E6">
-        <v>6.127838117783934</v>
+        <v>12.1179000794835</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>30.83387926977898</v>
+        <v>2.125767941714101</v>
       </c>
       <c r="H6">
-        <v>32.23082631328153</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>27.06044005198617</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.745330896666683</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>19.96499309461933</v>
       </c>
       <c r="L6">
-        <v>8.906542020513688</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>13.60983073949722</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>15.47882701517435</v>
+      </c>
+      <c r="O6">
+        <v>32.86894323427529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.05921746677469</v>
+        <v>23.08998061480565</v>
       </c>
       <c r="C7">
-        <v>16.66653031284198</v>
+        <v>16.74104136128713</v>
       </c>
       <c r="D7">
-        <v>6.363757181882411</v>
+        <v>11.32795807874422</v>
       </c>
       <c r="E7">
-        <v>6.151630526050226</v>
+        <v>12.27452736261888</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>31.45354481878616</v>
+        <v>2.121519661897523</v>
       </c>
       <c r="H7">
-        <v>32.77523297227079</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>27.42946652535373</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.76487906463383</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>20.37987653704718</v>
       </c>
       <c r="L7">
-        <v>9.05200814736447</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>13.95566410403569</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>15.43573560378121</v>
+      </c>
+      <c r="O7">
+        <v>33.23893660060789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.11695441584285</v>
+        <v>25.20907179526124</v>
       </c>
       <c r="C8">
-        <v>18.48820241564416</v>
+        <v>18.38798763919199</v>
       </c>
       <c r="D8">
-        <v>7.053622819735889</v>
+        <v>11.98768390193781</v>
       </c>
       <c r="E8">
-        <v>6.263607935097344</v>
+        <v>12.97324638274277</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>34.13364356035501</v>
+        <v>2.103101214984715</v>
       </c>
       <c r="H8">
-        <v>35.15641502946642</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>29.06326534459466</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.860390535211858</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>22.168416139665</v>
       </c>
       <c r="L8">
-        <v>9.688977787182402</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>15.4105126156387</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>15.25870307750501</v>
+      </c>
+      <c r="O8">
+        <v>34.9095188141759</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.80148728768539</v>
+        <v>29.29162555453198</v>
       </c>
       <c r="C9">
-        <v>21.76605217973176</v>
+        <v>21.50988135877223</v>
       </c>
       <c r="D9">
-        <v>8.29311397677003</v>
+        <v>13.29852050412891</v>
       </c>
       <c r="E9">
-        <v>6.510878654395902</v>
+        <v>14.36840962112172</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.18992505281398</v>
+        <v>2.067768546622884</v>
       </c>
       <c r="H9">
-        <v>39.74174199159542</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>32.28308519116725</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.084226090969248</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>25.76491375405248</v>
       </c>
       <c r="L9">
-        <v>10.91636763807417</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>18.02131799379802</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>14.96530782549261</v>
+      </c>
+      <c r="O9">
+        <v>38.32534817939187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.31684861099579</v>
+        <v>32.27567418362699</v>
       </c>
       <c r="C10">
-        <v>24.01696877468697</v>
+        <v>23.73577173983495</v>
       </c>
       <c r="D10">
-        <v>9.142495875704013</v>
+        <v>14.27372295127522</v>
       </c>
       <c r="E10">
-        <v>6.712235545419628</v>
+        <v>15.41093892096072</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>42.79477097995769</v>
+        <v>2.041838371004734</v>
       </c>
       <c r="H10">
-        <v>43.06586004472267</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>34.66412755162083</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.274587248362558</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>28.43003129004651</v>
       </c>
       <c r="L10">
-        <v>11.93177363523361</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>19.80742783190421</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>14.79036303263866</v>
+      </c>
+      <c r="O10">
+        <v>40.93304284308071</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.42540374103119</v>
+        <v>33.60065634860445</v>
       </c>
       <c r="C11">
-        <v>25.01273661971628</v>
+        <v>24.72621478036961</v>
       </c>
       <c r="D11">
-        <v>9.517667419763498</v>
+        <v>14.7214419581977</v>
       </c>
       <c r="E11">
-        <v>6.808866985582513</v>
+        <v>15.89066612747125</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.416802374556</v>
+        <v>2.029924380891669</v>
       </c>
       <c r="H11">
-        <v>44.57316405348563</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>35.75421239072965</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.367805604143739</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>29.6120460637919</v>
       </c>
       <c r="L11">
-        <v>12.42452217642695</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>20.59547034405361</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>14.72182409325466</v>
+      </c>
+      <c r="O11">
+        <v>42.14621695871615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.84063634703976</v>
+        <v>34.09844912737654</v>
       </c>
       <c r="C12">
-        <v>25.38634911397618</v>
+        <v>25.0986937887508</v>
       </c>
       <c r="D12">
-        <v>9.65832811710416</v>
+        <v>14.8917762412486</v>
       </c>
       <c r="E12">
-        <v>6.846259140696581</v>
+        <v>16.07334563371512</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>45.02920940001772</v>
+        <v>2.025383141094337</v>
       </c>
       <c r="H12">
-        <v>45.14389114979578</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>36.16847167586947</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.404159979420622</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>30.0559685093545</v>
       </c>
       <c r="L12">
-        <v>12.60927455176368</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>20.89077963437982</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>14.69769261004203</v>
+      </c>
+      <c r="O12">
+        <v>42.61018961165902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.75140077986599</v>
+        <v>33.99140296693311</v>
       </c>
       <c r="C13">
-        <v>25.30602849574705</v>
+        <v>25.01857751944164</v>
       </c>
       <c r="D13">
-        <v>9.628093341547352</v>
+        <v>14.85505233113802</v>
       </c>
       <c r="E13">
-        <v>6.838169122028188</v>
+        <v>16.03395247662953</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.89738332104903</v>
+        <v>2.026362726130963</v>
       </c>
       <c r="H13">
-        <v>45.02096472298258</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>36.0791789508883</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.396281647115589</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>29.96051314461399</v>
       </c>
       <c r="L13">
-        <v>12.56956197986925</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>20.82731025778005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>14.70280444525269</v>
+      </c>
+      <c r="O13">
+        <v>42.51004789822309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.45965275634044</v>
+        <v>33.64168450301006</v>
       </c>
       <c r="C14">
-        <v>25.04353960461711</v>
+        <v>24.75690664697111</v>
       </c>
       <c r="D14">
-        <v>9.529266597409316</v>
+        <v>14.73543811806691</v>
       </c>
       <c r="E14">
-        <v>6.8119267401636</v>
+        <v>15.90567326099742</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.46721690486019</v>
+        <v>2.029551446299775</v>
       </c>
       <c r="H14">
-        <v>44.62011476516828</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>35.78826104247639</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.370774701381405</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>29.64863717393074</v>
       </c>
       <c r="L14">
-        <v>12.43975707707546</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>20.61982523204052</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>14.71980073928338</v>
+      </c>
+      <c r="O14">
+        <v>42.18429184251276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.28037459052378</v>
+        <v>33.4269816736513</v>
       </c>
       <c r="C15">
-        <v>24.88232582578448</v>
+        <v>24.59630975077831</v>
       </c>
       <c r="D15">
-        <v>9.468555566980289</v>
+        <v>14.66228162303101</v>
       </c>
       <c r="E15">
-        <v>6.795959207018545</v>
+        <v>15.82723933466947</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.20351628397221</v>
+        <v>2.031500348099417</v>
       </c>
       <c r="H15">
-        <v>44.37459813025561</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>35.6102733791327</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.355291703565583</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>29.45714749604696</v>
       </c>
       <c r="L15">
-        <v>12.3600167391115</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>20.49234372516525</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>14.73045659487869</v>
+      </c>
+      <c r="O15">
+        <v>41.98537669636909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.2437310476725</v>
+        <v>32.18848804494863</v>
       </c>
       <c r="C16">
-        <v>23.95137400716521</v>
+        <v>23.67064722660017</v>
       </c>
       <c r="D16">
-        <v>9.117768536314873</v>
+        <v>14.24456152429788</v>
       </c>
       <c r="E16">
-        <v>6.706027923899562</v>
+        <v>15.37971549734351</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.6884671158945</v>
+        <v>2.042613569633431</v>
       </c>
       <c r="H16">
-        <v>42.9673063913008</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>34.59306402937276</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.268636745715342</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>28.35222836478419</v>
       </c>
       <c r="L16">
-        <v>11.89929832402567</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>19.75546880623528</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>14.79508346994983</v>
+      </c>
+      <c r="O16">
+        <v>40.85435537706554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.59902477224437</v>
+        <v>31.42085911269322</v>
       </c>
       <c r="C17">
-        <v>23.37343550180823</v>
+        <v>23.09750479166021</v>
       </c>
       <c r="D17">
-        <v>8.899834397282502</v>
+        <v>13.98947362125173</v>
       </c>
       <c r="E17">
-        <v>6.652196990192751</v>
+        <v>15.10671358327182</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41.75492697814573</v>
+        <v>2.04939259586985</v>
       </c>
       <c r="H17">
-        <v>42.10312407404157</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>33.97110000437461</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.217239372129397</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>27.66706565902025</v>
       </c>
       <c r="L17">
-        <v>11.61308647694882</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>19.29742606742532</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>14.83771159879958</v>
+      </c>
+      <c r="O17">
+        <v>40.1678332524806</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.22480720753232</v>
+        <v>30.97623072749418</v>
       </c>
       <c r="C18">
-        <v>23.03832703956489</v>
+        <v>22.76572290147185</v>
       </c>
       <c r="D18">
-        <v>8.773414694843549</v>
+        <v>13.84312268514233</v>
       </c>
       <c r="E18">
-        <v>6.621703314043637</v>
+        <v>14.95018698696068</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.21624408035152</v>
+        <v>2.053281467145417</v>
       </c>
       <c r="H18">
-        <v>41.60556158659928</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>33.61397843822235</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.188293081545769</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>27.27007217512097</v>
       </c>
       <c r="L18">
-        <v>11.44706801400971</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>19.03164059261453</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>14.86325323817795</v>
+      </c>
+      <c r="O18">
+        <v>39.77544375246778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.09750354220767</v>
+        <v>30.82513383855983</v>
       </c>
       <c r="C19">
-        <v>22.92438607064631</v>
+        <v>22.65300592042757</v>
       </c>
       <c r="D19">
-        <v>8.730421731179559</v>
+        <v>13.79362916000006</v>
       </c>
       <c r="E19">
-        <v>6.611457040731515</v>
+        <v>14.89726948314964</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.03353816742092</v>
+        <v>2.054596761078566</v>
       </c>
       <c r="H19">
-        <v>41.43699224898995</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>33.49315724212929</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.178595392369448</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>27.1351391999634</v>
       </c>
       <c r="L19">
-        <v>11.39060967525698</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>18.94123828173445</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>14.87207049166626</v>
+      </c>
+      <c r="O19">
+        <v>39.64299565021513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.66800280043516</v>
+        <v>31.50289151784509</v>
       </c>
       <c r="C20">
-        <v>23.4352328545857</v>
+        <v>23.15873281665423</v>
       </c>
       <c r="D20">
-        <v>8.923143199310136</v>
+        <v>14.01658875597134</v>
       </c>
       <c r="E20">
-        <v>6.657878395112952</v>
+        <v>15.13572228522954</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41.85447883311974</v>
+        <v>2.048672101610464</v>
       </c>
       <c r="H20">
-        <v>42.19516634571927</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>34.03724252577407</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.22264626835531</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>27.74029863210091</v>
       </c>
       <c r="L20">
-        <v>11.6436970111316</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>19.34642401561597</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>14.83306632391453</v>
+      </c>
+      <c r="O20">
+        <v>40.24065370418666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.5454646825064</v>
+        <v>33.74450592520786</v>
       </c>
       <c r="C21">
-        <v>25.1207277296903</v>
+        <v>24.83383030009419</v>
       </c>
       <c r="D21">
-        <v>9.558330837291598</v>
+        <v>14.77054816996026</v>
       </c>
       <c r="E21">
-        <v>6.819612373805888</v>
+        <v>15.94332209632657</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.59360958751534</v>
+        <v>2.028615760281808</v>
       </c>
       <c r="H21">
-        <v>44.73784940901126</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>35.87366626614796</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.37823716492932</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>29.74033644344783</v>
       </c>
       <c r="L21">
-        <v>12.47793154317217</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>20.68084924453161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>14.71475694295509</v>
+      </c>
+      <c r="O21">
+        <v>42.27984353278914</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.74630032441957</v>
+        <v>35.18696928783924</v>
       </c>
       <c r="C22">
-        <v>26.20246332544948</v>
+        <v>25.91394420896641</v>
       </c>
       <c r="D22">
-        <v>9.965373546848628</v>
+        <v>15.26808094944892</v>
       </c>
       <c r="E22">
-        <v>6.930024232483232</v>
+        <v>16.47723844351675</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>46.37368970664289</v>
+        <v>2.015327070060717</v>
       </c>
       <c r="H22">
-        <v>46.39977862076511</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>37.08277581404185</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.486136194529866</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>31.02644796183371</v>
       </c>
       <c r="L22">
-        <v>13.0125800553244</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>21.53511954374909</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>14.64820429893681</v>
+      </c>
+      <c r="O22">
+        <v>43.63971243105172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.10756994353571</v>
+        <v>34.41888168401739</v>
       </c>
       <c r="C23">
-        <v>25.62671222399388</v>
+        <v>25.33857352139081</v>
       </c>
       <c r="D23">
-        <v>9.748790396200279</v>
+        <v>15.00201210696958</v>
       </c>
       <c r="E23">
-        <v>6.870635226115557</v>
+        <v>16.19161881534913</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.42424533788248</v>
+        <v>2.022440886389013</v>
       </c>
       <c r="H23">
-        <v>45.51249051757923</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>36.4364362105018</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.427940341329151</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>30.34168530405589</v>
       </c>
       <c r="L23">
-        <v>12.72809544234909</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>21.08065709814296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>14.68264889576596</v>
+      </c>
+      <c r="O23">
+        <v>42.91114683651213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.63682898764548</v>
+        <v>31.46581502409131</v>
       </c>
       <c r="C24">
-        <v>23.40730317244882</v>
+        <v>23.13105875493595</v>
       </c>
       <c r="D24">
-        <v>8.91260881343765</v>
+        <v>14.00432907548633</v>
       </c>
       <c r="E24">
-        <v>6.655308421948092</v>
+        <v>15.12260614060768</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>41.80947765406019</v>
+        <v>2.048997862566043</v>
       </c>
       <c r="H24">
-        <v>42.15355636192476</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>34.00733811148782</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.220199940555312</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>27.70719966147135</v>
       </c>
       <c r="L24">
-        <v>11.62986259122926</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>19.32427970640325</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>14.83516324878889</v>
+      </c>
+      <c r="O24">
+        <v>40.20772445976429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.84015456459746</v>
+        <v>28.15993508496092</v>
       </c>
       <c r="C25">
-        <v>20.90871740835082</v>
+        <v>20.66721528069309</v>
       </c>
       <c r="D25">
-        <v>7.969184600799545</v>
+        <v>12.94206845696437</v>
       </c>
       <c r="E25">
-        <v>6.440753185477148</v>
+        <v>13.9882563004991</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>37.84281552718408</v>
+        <v>2.077285192130433</v>
       </c>
       <c r="H25">
-        <v>38.51018241956064</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>31.41011150065778</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.019415958530656</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>24.75267857294381</v>
       </c>
       <c r="L25">
-        <v>10.58678412571156</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>17.33946963950876</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>15.0381984419081</v>
+      </c>
+      <c r="O25">
+        <v>37.38540962707287</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_49/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.76854499102904</v>
+        <v>13.74134365598225</v>
       </c>
       <c r="C2">
-        <v>18.82138221632479</v>
+        <v>7.699780904676204</v>
       </c>
       <c r="D2">
-        <v>12.16762940617748</v>
+        <v>12.15802810010676</v>
       </c>
       <c r="E2">
-        <v>13.1642743821243</v>
+        <v>13.15461874069442</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.098178350838285</v>
+        <v>26.50684364598679</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>9.976416334707523</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.888623259959718</v>
+        <v>5.895917474257879</v>
       </c>
       <c r="K2">
-        <v>22.64245902028398</v>
+        <v>12.18264828124868</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.21413055129094</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>35.37138630509226</v>
+        <v>16.7330818730258</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.1294190607629</v>
+        <v>12.84038161561174</v>
       </c>
       <c r="C3">
-        <v>17.5500773978817</v>
+        <v>7.331835429235347</v>
       </c>
       <c r="D3">
-        <v>11.64704119838744</v>
+        <v>11.65077601293783</v>
       </c>
       <c r="E3">
-        <v>12.61212859789613</v>
+        <v>12.61569298908349</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.112526486522507</v>
+        <v>26.26060026897841</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>10.04876897681914</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.809423915876502</v>
+        <v>5.804126996469846</v>
       </c>
       <c r="K3">
-        <v>21.25570884349222</v>
+        <v>11.47464923120535</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.34729021276737</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>34.04223583151498</v>
+        <v>16.76804040815103</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.09572535689043</v>
+        <v>12.25501737949875</v>
       </c>
       <c r="C4">
-        <v>16.74551996367233</v>
+        <v>7.096231247728537</v>
       </c>
       <c r="D4">
-        <v>11.32969617418735</v>
+        <v>11.33562464635313</v>
       </c>
       <c r="E4">
-        <v>12.27636444705477</v>
+        <v>12.28151692757349</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.121470147850116</v>
+        <v>26.13948881490916</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>10.09968521869909</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.765112719851858</v>
+        <v>5.750157223986739</v>
       </c>
       <c r="K4">
-        <v>20.38470861896596</v>
+        <v>11.01713302878059</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.43523829741305</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>33.24328675643727</v>
+        <v>16.8042969514032</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.66775594020013</v>
+        <v>12.00835475117097</v>
       </c>
       <c r="C5">
-        <v>16.41163210549061</v>
+        <v>6.997854910718347</v>
       </c>
       <c r="D5">
-        <v>11.20101925800968</v>
+        <v>11.2064571416993</v>
       </c>
       <c r="E5">
-        <v>12.14041831097226</v>
+        <v>12.14471334005718</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.125153775616144</v>
+        <v>26.09745942198618</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>10.12200596023823</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.748095157392514</v>
+        <v>5.72877425670499</v>
       </c>
       <c r="K5">
-        <v>20.02500343779809</v>
+        <v>10.82500348018783</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.47254582095649</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>32.92202639124872</v>
+        <v>16.82263519992552</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.59629132906034</v>
+        <v>11.96690520894114</v>
       </c>
       <c r="C6">
-        <v>16.35582816578382</v>
+        <v>6.98137901036797</v>
       </c>
       <c r="D6">
-        <v>11.17969388099785</v>
+        <v>11.18497016760265</v>
       </c>
       <c r="E6">
-        <v>12.1179000794835</v>
+        <v>12.1219657477508</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.125767941714101</v>
+        <v>26.09091541911412</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10.12580553611093</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.745330896666683</v>
+        <v>5.725260727457683</v>
       </c>
       <c r="K6">
-        <v>19.96499309461933</v>
+        <v>10.79275865442378</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.47882701517435</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>32.86894323427529</v>
+        <v>16.82589094348317</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.08998061480565</v>
+        <v>12.25172372622332</v>
       </c>
       <c r="C7">
-        <v>16.74104136128713</v>
+        <v>7.094913986998671</v>
       </c>
       <c r="D7">
-        <v>11.32795807874422</v>
+        <v>11.33388538243175</v>
       </c>
       <c r="E7">
-        <v>12.27452736261888</v>
+        <v>12.27967419481804</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.121519661897523</v>
+        <v>26.13889266815811</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>10.0999799568154</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.76487906463383</v>
+        <v>5.749866364066104</v>
       </c>
       <c r="K7">
-        <v>20.37987653704718</v>
+        <v>11.01456485993572</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.43573560378121</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>33.23893660060789</v>
+        <v>16.80453004426733</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.20907179526124</v>
+        <v>13.43734766553532</v>
       </c>
       <c r="C8">
-        <v>18.38798763919199</v>
+        <v>7.574960786118552</v>
       </c>
       <c r="D8">
-        <v>11.98768390193781</v>
+        <v>11.98400133626592</v>
       </c>
       <c r="E8">
-        <v>12.97324638274277</v>
+        <v>12.96958914085128</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.103101214984715</v>
+        <v>26.41555764577463</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>9.999978999407887</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.860390535211858</v>
+        <v>5.863777909237811</v>
       </c>
       <c r="K8">
-        <v>22.168416139665</v>
+        <v>11.94328501107932</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.25870307750501</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>34.9095188141759</v>
+        <v>16.74197112438637</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.29162555453198</v>
+        <v>15.50881397955477</v>
       </c>
       <c r="C9">
-        <v>21.50988135877223</v>
+        <v>8.437098567718724</v>
       </c>
       <c r="D9">
-        <v>13.29852050412891</v>
+        <v>13.22238671656894</v>
       </c>
       <c r="E9">
-        <v>14.36840962112172</v>
+        <v>14.2889529878871</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.067768546622884</v>
+        <v>27.20633676934116</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>9.858244416191472</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.084226090969248</v>
+        <v>6.105681317714637</v>
       </c>
       <c r="K9">
-        <v>25.76491375405248</v>
+        <v>13.5823881378865</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.96530782549261</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>38.32534817939187</v>
+        <v>16.74370655954006</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.27567418362699</v>
+        <v>16.87882521690301</v>
       </c>
       <c r="C10">
-        <v>23.73577173983495</v>
+        <v>9.019813246000174</v>
       </c>
       <c r="D10">
-        <v>14.27372295127522</v>
+        <v>14.10200315547364</v>
       </c>
       <c r="E10">
-        <v>15.41093892096072</v>
+        <v>15.22934899983953</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.041838371004734</v>
+        <v>27.94998486137764</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.791425168864675</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.274587248362558</v>
+        <v>6.29409608809655</v>
       </c>
       <c r="K10">
-        <v>28.43003129004651</v>
+        <v>14.67498153145816</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.79036303263866</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>40.93304284308071</v>
+        <v>16.83051503283816</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.60065634860445</v>
+        <v>17.46974181295348</v>
       </c>
       <c r="C11">
-        <v>24.72621478036961</v>
+        <v>9.273587129145765</v>
       </c>
       <c r="D11">
-        <v>14.7214419581977</v>
+        <v>14.49435516640966</v>
       </c>
       <c r="E11">
-        <v>15.89066612747125</v>
+        <v>15.64954711895418</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.029924380891669</v>
+        <v>28.3255539168517</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>9.770102180459654</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.367805604143739</v>
+        <v>6.382006577243112</v>
       </c>
       <c r="K11">
-        <v>29.6120460637919</v>
+        <v>15.14787134015266</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.72182409325466</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>42.14621695871615</v>
+        <v>16.89065391053717</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.09844912737654</v>
+        <v>17.68891661090915</v>
       </c>
       <c r="C12">
-        <v>25.0986937887508</v>
+        <v>9.368043360080668</v>
       </c>
       <c r="D12">
-        <v>14.8917762412486</v>
+        <v>14.64173176184748</v>
       </c>
       <c r="E12">
-        <v>16.07334563371512</v>
+        <v>15.80749154166399</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.025383141094337</v>
+        <v>28.47326203381278</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>9.763418056449465</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.404159979420622</v>
+        <v>6.415602488598908</v>
       </c>
       <c r="K12">
-        <v>30.0559685093545</v>
+        <v>15.32348864831257</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>14.69769261004203</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>42.61018961165902</v>
+        <v>16.91656523894224</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.99140296693311</v>
+        <v>17.64191676405014</v>
       </c>
       <c r="C13">
-        <v>25.01857751944164</v>
+        <v>9.347773758990503</v>
       </c>
       <c r="D13">
-        <v>14.85505233113802</v>
+        <v>14.6100459265473</v>
       </c>
       <c r="E13">
-        <v>16.03395247662953</v>
+        <v>15.77352877525377</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.026362726130963</v>
+        <v>28.44120450924225</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>9.764794354003525</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.396281647115589</v>
+        <v>6.408353541870637</v>
       </c>
       <c r="K13">
-        <v>29.96051314461399</v>
+        <v>15.28581970034652</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14.70280444525269</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>42.51004789822309</v>
+        <v>16.91084253644767</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.64168450301006</v>
+        <v>17.48786517850478</v>
       </c>
       <c r="C14">
-        <v>24.75690664697111</v>
+        <v>9.281391087305915</v>
       </c>
       <c r="D14">
-        <v>14.73543811806691</v>
+        <v>14.50650432978379</v>
       </c>
       <c r="E14">
-        <v>15.90567326099742</v>
+        <v>15.6625652653474</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.029551446299775</v>
+        <v>28.33759529103466</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>9.769523901779529</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.370774701381405</v>
+        <v>6.384764451894021</v>
       </c>
       <c r="K14">
-        <v>29.64863717393074</v>
+        <v>15.16238862938318</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.71980073928338</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>42.18429184251276</v>
+        <v>16.89272179945446</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.4269816736513</v>
+        <v>17.39290769612409</v>
       </c>
       <c r="C15">
-        <v>24.59630975077831</v>
+        <v>9.240515517191779</v>
       </c>
       <c r="D15">
-        <v>14.66228162303101</v>
+        <v>14.44292402236361</v>
       </c>
       <c r="E15">
-        <v>15.82723933466947</v>
+        <v>15.59444170150379</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.031500348099417</v>
+        <v>28.27484987205682</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>9.77260457488882</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.355291703565583</v>
+        <v>6.370355037577868</v>
       </c>
       <c r="K15">
-        <v>29.45714749604696</v>
+        <v>15.0863340570672</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.73045659487869</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>41.98537669636909</v>
+        <v>16.88203597049364</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.18848804494863</v>
+        <v>16.83956179311777</v>
       </c>
       <c r="C16">
-        <v>23.67064722660017</v>
+        <v>9.002999435101975</v>
       </c>
       <c r="D16">
-        <v>14.24456152429788</v>
+        <v>14.076198128206</v>
       </c>
       <c r="E16">
-        <v>15.37971549734351</v>
+        <v>15.20172764937167</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.042613569633431</v>
+        <v>27.92620201262885</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9.793008486943755</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.268636745715342</v>
+        <v>6.288394295203825</v>
       </c>
       <c r="K16">
-        <v>28.35222836478419</v>
+        <v>14.64359249568231</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.79508346994983</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>40.85435537706554</v>
+        <v>16.8270147871849</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.42085911269322</v>
+        <v>16.49186404159639</v>
       </c>
       <c r="C17">
-        <v>23.09750479166021</v>
+        <v>8.854381149182151</v>
       </c>
       <c r="D17">
-        <v>13.98947362125173</v>
+        <v>13.849166481985</v>
       </c>
       <c r="E17">
-        <v>15.10671358327182</v>
+        <v>14.95879941146571</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.04939259586985</v>
+        <v>27.72196261824963</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>9.807909206219627</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.217239372129397</v>
+        <v>6.238669806205108</v>
       </c>
       <c r="K17">
-        <v>27.66706565902025</v>
+        <v>14.36581125437638</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.83771159879958</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>40.1678332524806</v>
+        <v>16.79867033702632</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.97623072749418</v>
+        <v>16.28883307634441</v>
       </c>
       <c r="C18">
-        <v>22.76572290147185</v>
+        <v>8.767836184742984</v>
       </c>
       <c r="D18">
-        <v>13.84312268514233</v>
+        <v>13.71785407547454</v>
       </c>
       <c r="E18">
-        <v>14.95018698696068</v>
+        <v>14.81836248776877</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.053281467145417</v>
+        <v>27.60799211868413</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>9.817328359134597</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.188293081545769</v>
+        <v>6.210277189326908</v>
       </c>
       <c r="K18">
-        <v>27.27007217512097</v>
+        <v>14.20376559844443</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.86325323817795</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>39.77544375246778</v>
+        <v>16.78430095392739</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.82513383855983</v>
+        <v>16.21956582386229</v>
       </c>
       <c r="C19">
-        <v>22.65300592042757</v>
+        <v>8.738351487563357</v>
       </c>
       <c r="D19">
-        <v>13.79362916000006</v>
+        <v>13.67327131452168</v>
       </c>
       <c r="E19">
-        <v>14.89726948314964</v>
+        <v>14.77069373195612</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.054596761078566</v>
+        <v>27.57000105782501</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>9.820660736159216</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.178595392369448</v>
+        <v>6.20069992124307</v>
       </c>
       <c r="K19">
-        <v>27.1351391999634</v>
+        <v>14.14850895935932</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.87207049166626</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>39.64299565021513</v>
+        <v>16.77976265996721</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.50289151784509</v>
+        <v>16.52919176935153</v>
       </c>
       <c r="C20">
-        <v>23.15873281665423</v>
+        <v>8.87031204702267</v>
       </c>
       <c r="D20">
-        <v>14.01658875597134</v>
+        <v>13.87341055037375</v>
       </c>
       <c r="E20">
-        <v>15.13572228522954</v>
+        <v>14.98473379805382</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.048672101610464</v>
+        <v>27.74334076473288</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>9.806234559309237</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.22264626835531</v>
+        <v>6.243941655448115</v>
       </c>
       <c r="K20">
-        <v>27.74029863210091</v>
+        <v>14.39561672750035</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.83306632391453</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>40.24065370418666</v>
+        <v>16.80148630555208</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.74450592520786</v>
+        <v>17.53323806071244</v>
       </c>
       <c r="C21">
-        <v>24.83383030009419</v>
+        <v>9.300933960122865</v>
       </c>
       <c r="D21">
-        <v>14.77054816996026</v>
+        <v>14.5369500653957</v>
       </c>
       <c r="E21">
-        <v>15.94332209632657</v>
+        <v>15.69519040386583</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.028615760281808</v>
+        <v>28.36787795014233</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>9.768096279728173</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.37823716492932</v>
+        <v>6.39168490640544</v>
       </c>
       <c r="K21">
-        <v>29.74033644344783</v>
+        <v>15.19873696071113</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14.71475694295509</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>42.27984353278914</v>
+        <v>16.89795779706338</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.18696928783924</v>
+        <v>18.16269887060813</v>
       </c>
       <c r="C22">
-        <v>25.91394420896641</v>
+        <v>9.57279401392384</v>
       </c>
       <c r="D22">
-        <v>15.26808094944892</v>
+        <v>14.96360222310991</v>
       </c>
       <c r="E22">
-        <v>16.47723844351675</v>
+        <v>16.15263894861466</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.015327070060717</v>
+        <v>28.80808659279396</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>9.751317899047338</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.486136194529866</v>
+        <v>6.49002421518938</v>
       </c>
       <c r="K22">
-        <v>31.02644796183371</v>
+        <v>15.70349137788656</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>14.64820429893681</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>43.63971243105172</v>
+        <v>16.97937544944302</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.41888168401739</v>
+        <v>17.82917215332657</v>
       </c>
       <c r="C23">
-        <v>25.33857352139081</v>
+        <v>9.42857713332632</v>
       </c>
       <c r="D23">
-        <v>15.00201210696958</v>
+        <v>14.73655224398341</v>
       </c>
       <c r="E23">
-        <v>16.19161881534913</v>
+        <v>15.90914149475936</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.022440886389013</v>
+        <v>28.57016971626387</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>9.759497983406279</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.427940341329151</v>
+        <v>6.437378770811446</v>
       </c>
       <c r="K23">
-        <v>30.34168530405589</v>
+        <v>15.4359296343095</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>14.68264889576596</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>42.91114683651213</v>
+        <v>16.93418534127368</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.46581502409131</v>
+        <v>16.51232567214035</v>
       </c>
       <c r="C24">
-        <v>23.13105875493595</v>
+        <v>8.863113120286251</v>
       </c>
       <c r="D24">
-        <v>14.00432907548633</v>
+        <v>13.86245225809759</v>
       </c>
       <c r="E24">
-        <v>15.12260614060768</v>
+        <v>14.97301126688654</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.048997862566043</v>
+        <v>27.73366497028078</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>9.806989018171127</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.220199940555312</v>
+        <v>6.241557645308458</v>
       </c>
       <c r="K24">
-        <v>27.70719966147135</v>
+        <v>14.38214897992417</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.83516324878889</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>40.20772445976429</v>
+        <v>16.80020721924026</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.15993508496092</v>
+        <v>14.97530864518516</v>
       </c>
       <c r="C25">
-        <v>20.66721528069309</v>
+        <v>8.21263640398748</v>
       </c>
       <c r="D25">
-        <v>12.94206845696437</v>
+        <v>12.89218538423542</v>
       </c>
       <c r="E25">
-        <v>13.9882563004991</v>
+        <v>13.93658668478544</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.077285192130433</v>
+        <v>26.96457310881832</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>9.890350415005903</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.019415958530656</v>
+        <v>6.038318666523098</v>
       </c>
       <c r="K25">
-        <v>24.75267857294381</v>
+        <v>13.15857284287617</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.0381984419081</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>37.38540962707287</v>
+        <v>16.7289188507158</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_49/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.74134365598225</v>
+        <v>10.75323438732901</v>
       </c>
       <c r="C2">
-        <v>7.699780904676204</v>
+        <v>4.771289220509138</v>
       </c>
       <c r="D2">
-        <v>12.15802810010676</v>
+        <v>14.96616765246449</v>
       </c>
       <c r="E2">
-        <v>13.15461874069442</v>
+        <v>16.38130147518428</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>26.50684364598679</v>
+        <v>36.0854662352329</v>
       </c>
       <c r="H2">
-        <v>9.976416334707523</v>
+        <v>16.19390760500136</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.895917474257879</v>
+        <v>9.350473265601769</v>
       </c>
       <c r="K2">
-        <v>12.18264828124868</v>
+        <v>10.07388184593748</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.7330818730258</v>
+        <v>25.61415476017342</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.84038161561174</v>
+        <v>10.46477751452044</v>
       </c>
       <c r="C3">
-        <v>7.331835429235347</v>
+        <v>4.572673318459346</v>
       </c>
       <c r="D3">
-        <v>11.65077601293783</v>
+        <v>14.90269282907347</v>
       </c>
       <c r="E3">
-        <v>12.61569298908349</v>
+        <v>16.31791882411145</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>26.26060026897841</v>
+        <v>36.18443169714828</v>
       </c>
       <c r="H3">
-        <v>10.04876897681914</v>
+        <v>16.2477179293135</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.804126996469846</v>
+        <v>9.357354326951455</v>
       </c>
       <c r="K3">
-        <v>11.47464923120535</v>
+        <v>9.870793124858572</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.76804040815103</v>
+        <v>25.70194422641802</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.25501737949875</v>
+        <v>10.28522567712254</v>
       </c>
       <c r="C4">
-        <v>7.096231247728537</v>
+        <v>4.445484807901144</v>
       </c>
       <c r="D4">
-        <v>11.33562464635313</v>
+        <v>14.86695157755296</v>
       </c>
       <c r="E4">
-        <v>12.28151692757349</v>
+        <v>16.28257435831664</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>26.13948881490916</v>
+        <v>36.25579065227989</v>
       </c>
       <c r="H4">
-        <v>10.09968521869909</v>
+        <v>16.28336136712342</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.750157223986739</v>
+        <v>9.362971692164985</v>
       </c>
       <c r="K4">
-        <v>11.01713302878059</v>
+        <v>9.745280013545157</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.8042969514032</v>
+        <v>25.76119623819798</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.00835475117097</v>
+        <v>10.21155469539852</v>
       </c>
       <c r="C5">
-        <v>6.997854910718347</v>
+        <v>4.392386596967213</v>
       </c>
       <c r="D5">
-        <v>11.2064571416993</v>
+        <v>14.85321101189618</v>
       </c>
       <c r="E5">
-        <v>12.14471334005718</v>
+        <v>16.26908056395254</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>26.09745942198618</v>
+        <v>36.28752288956449</v>
       </c>
       <c r="H5">
-        <v>10.12200596023823</v>
+        <v>16.29854089919963</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.72877425670499</v>
+        <v>9.365611231871283</v>
       </c>
       <c r="K5">
-        <v>10.82500348018783</v>
+        <v>9.693994760640896</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.82263519992552</v>
+        <v>25.7866842458633</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.96690520894114</v>
+        <v>10.19929471747769</v>
       </c>
       <c r="C6">
-        <v>6.98137901036797</v>
+        <v>4.383494677909749</v>
       </c>
       <c r="D6">
-        <v>11.18497016760265</v>
+        <v>14.85097949919252</v>
       </c>
       <c r="E6">
-        <v>12.1219657477508</v>
+        <v>16.26689515122987</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>26.09091541911412</v>
+        <v>36.29295189415686</v>
       </c>
       <c r="H6">
-        <v>10.12580553611093</v>
+        <v>16.30110097663338</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.725260727457683</v>
+        <v>9.366070696860996</v>
       </c>
       <c r="K6">
-        <v>10.79275865442378</v>
+        <v>9.685472579639075</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.82589094348317</v>
+        <v>25.79099750346484</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.25172372622332</v>
+        <v>10.28423400661879</v>
       </c>
       <c r="C7">
-        <v>7.094913986998671</v>
+        <v>4.444773770305635</v>
       </c>
       <c r="D7">
-        <v>11.33388538243175</v>
+        <v>14.8667629156745</v>
       </c>
       <c r="E7">
-        <v>12.27967419481804</v>
+        <v>16.28238868065919</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>26.13889266815811</v>
+        <v>36.25620787806669</v>
       </c>
       <c r="H7">
-        <v>10.0999799568154</v>
+        <v>16.28356343362785</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.749866364066104</v>
+        <v>9.363005870761045</v>
       </c>
       <c r="K7">
-        <v>11.01456485993572</v>
+        <v>9.744588829422481</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.80453004426733</v>
+        <v>25.76153454697317</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.43734766553532</v>
+        <v>10.65434512843992</v>
       </c>
       <c r="C8">
-        <v>7.574960786118552</v>
+        <v>4.703920899564032</v>
       </c>
       <c r="D8">
-        <v>11.98400133626592</v>
+        <v>14.94361779936759</v>
       </c>
       <c r="E8">
-        <v>12.96958914085128</v>
+        <v>16.35871253285543</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>26.41555764577463</v>
+        <v>36.11738440745548</v>
       </c>
       <c r="H8">
-        <v>9.999978999407887</v>
+        <v>16.21192090672318</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.863777909237811</v>
+        <v>9.352557069739941</v>
       </c>
       <c r="K8">
-        <v>11.94328501107932</v>
+        <v>10.00406605852346</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.74197112438637</v>
+        <v>25.6433127974902</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.50881397955477</v>
+        <v>11.35623787463041</v>
       </c>
       <c r="C9">
-        <v>8.437098567718724</v>
+        <v>5.168723923973403</v>
       </c>
       <c r="D9">
-        <v>13.22238671656894</v>
+        <v>15.11942811778435</v>
       </c>
       <c r="E9">
-        <v>14.2889529878871</v>
+        <v>16.5361989828056</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>27.20633676934116</v>
+        <v>35.92966639874251</v>
       </c>
       <c r="H9">
-        <v>9.858244416191472</v>
+        <v>16.09209692505834</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.105681317714637</v>
+        <v>9.34309950063523</v>
       </c>
       <c r="K9">
-        <v>13.5823881378865</v>
+        <v>10.50357043454236</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.74370655954006</v>
+        <v>25.4540399252061</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.87882521690301</v>
+        <v>11.85174779217004</v>
       </c>
       <c r="C10">
-        <v>9.019813246000174</v>
+        <v>5.481734542846938</v>
       </c>
       <c r="D10">
-        <v>14.10200315547364</v>
+        <v>15.26309238434761</v>
       </c>
       <c r="E10">
-        <v>15.22934899983953</v>
+        <v>16.6827720408696</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>27.94998486137764</v>
+        <v>35.84384551858346</v>
       </c>
       <c r="H10">
-        <v>9.791425168864675</v>
+        <v>16.01667177628809</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.29409608809655</v>
+        <v>9.342852732029375</v>
       </c>
       <c r="K10">
-        <v>14.67498153145816</v>
+        <v>10.86122581032309</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.83051503283816</v>
+        <v>25.34108482996346</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.46974181295348</v>
+        <v>12.07174676256857</v>
       </c>
       <c r="C11">
-        <v>9.273587129145765</v>
+        <v>5.617619542452086</v>
       </c>
       <c r="D11">
-        <v>14.49435516640966</v>
+        <v>15.33140619922412</v>
       </c>
       <c r="E11">
-        <v>15.64954711895418</v>
+        <v>16.75277625862773</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>28.3255539168517</v>
+        <v>35.81621895115292</v>
       </c>
       <c r="H11">
-        <v>9.770102180459654</v>
+        <v>15.98509936342068</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.382006577243112</v>
+        <v>9.344188832202468</v>
       </c>
       <c r="K11">
-        <v>15.14787134015266</v>
+        <v>11.02119507122504</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.89065391053717</v>
+        <v>25.29539917316008</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.68891661090915</v>
+        <v>12.15419954445891</v>
       </c>
       <c r="C12">
-        <v>9.368043360080668</v>
+        <v>5.668118463252393</v>
       </c>
       <c r="D12">
-        <v>14.64173176184748</v>
+        <v>15.35768320676681</v>
       </c>
       <c r="E12">
-        <v>15.80749154166399</v>
+        <v>16.7797462824064</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>28.47326203381278</v>
+        <v>35.80740560261717</v>
       </c>
       <c r="H12">
-        <v>9.763418056449465</v>
+        <v>15.973537815591</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.415602488598908</v>
+        <v>9.344902290537087</v>
       </c>
       <c r="K12">
-        <v>15.32348864831257</v>
+        <v>11.08132386753079</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.91656523894224</v>
+        <v>25.27892114979549</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.64191676405014</v>
+        <v>12.13648110183564</v>
       </c>
       <c r="C13">
-        <v>9.347773758990503</v>
+        <v>5.657285532044016</v>
       </c>
       <c r="D13">
-        <v>14.6100459265473</v>
+        <v>15.35200612326302</v>
       </c>
       <c r="E13">
-        <v>15.77352877525377</v>
+        <v>16.77391759218662</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>28.44120450924225</v>
+        <v>35.80923031026455</v>
       </c>
       <c r="H13">
-        <v>9.764794354003525</v>
+        <v>15.97601026156499</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.408353541870637</v>
+        <v>9.344739418838964</v>
       </c>
       <c r="K13">
-        <v>15.28581970034652</v>
+        <v>11.06839483090719</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.91084253644767</v>
+        <v>25.28243337921093</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.48786517850478</v>
+        <v>12.07854778049089</v>
       </c>
       <c r="C14">
-        <v>9.281391087305915</v>
+        <v>5.621793429499935</v>
       </c>
       <c r="D14">
-        <v>14.50650432978379</v>
+        <v>15.3335599500724</v>
       </c>
       <c r="E14">
-        <v>15.6625652653474</v>
+        <v>16.75498596394055</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>28.33759529103466</v>
+        <v>35.81546080269408</v>
       </c>
       <c r="H14">
-        <v>9.769523901779529</v>
+        <v>15.98414028450819</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.384764451894021</v>
+        <v>9.344243374842378</v>
       </c>
       <c r="K14">
-        <v>15.16238862938318</v>
+        <v>11.02615118938968</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.89272179945446</v>
+        <v>25.29402702389631</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.39290769612409</v>
+        <v>12.04294827235428</v>
       </c>
       <c r="C15">
-        <v>9.240515517191779</v>
+        <v>5.599928159671877</v>
       </c>
       <c r="D15">
-        <v>14.44292402236361</v>
+        <v>15.32231374083409</v>
       </c>
       <c r="E15">
-        <v>15.59444170150379</v>
+        <v>16.74344928970431</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>28.27484987205682</v>
+        <v>35.81949199544274</v>
       </c>
       <c r="H15">
-        <v>9.77260457488882</v>
+        <v>15.98917151168455</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.370355037577868</v>
+        <v>9.343966532642254</v>
       </c>
       <c r="K15">
-        <v>15.0863340570672</v>
+        <v>11.00021579681795</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.88203597049364</v>
+        <v>25.30123561323477</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.83956179311777</v>
+        <v>11.83725463223602</v>
       </c>
       <c r="C16">
-        <v>9.002999435101975</v>
+        <v>5.472721243626664</v>
       </c>
       <c r="D16">
-        <v>14.076198128206</v>
+        <v>15.25868599300845</v>
       </c>
       <c r="E16">
-        <v>15.20172764937167</v>
+        <v>16.67826257656902</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>27.92620201262885</v>
+        <v>35.84588127247433</v>
       </c>
       <c r="H16">
-        <v>9.793008486943755</v>
+        <v>16.01879025435071</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.288394295203825</v>
+        <v>9.342794496110999</v>
       </c>
       <c r="K16">
-        <v>14.64359249568231</v>
+        <v>10.85071168228959</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.8270147871849</v>
+        <v>25.34418539466526</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.49186404159639</v>
+        <v>11.70962462585712</v>
       </c>
       <c r="C17">
-        <v>8.854381149182151</v>
+        <v>5.393000708563831</v>
       </c>
       <c r="D17">
-        <v>13.849166481985</v>
+        <v>15.2203983084775</v>
       </c>
       <c r="E17">
-        <v>14.95879941146571</v>
+        <v>16.63911265674324</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>27.72196261824963</v>
+        <v>35.86499886441887</v>
       </c>
       <c r="H17">
-        <v>9.807909206219627</v>
+        <v>16.03766216268626</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.238669806205108</v>
+        <v>9.342445934114659</v>
       </c>
       <c r="K17">
-        <v>14.36581125437638</v>
+        <v>10.75825592164389</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.79867033702632</v>
+        <v>25.37199512623465</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.28883307634441</v>
+        <v>11.63571011642519</v>
       </c>
       <c r="C18">
-        <v>8.767836184742984</v>
+        <v>5.346536356876512</v>
       </c>
       <c r="D18">
-        <v>13.71785407547454</v>
+        <v>15.19865597929975</v>
       </c>
       <c r="E18">
-        <v>14.81836248776877</v>
+        <v>16.61690895270867</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>27.60799211868413</v>
+        <v>35.87706876831448</v>
       </c>
       <c r="H18">
-        <v>9.817328359134597</v>
+        <v>16.04877455645112</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.210277189326908</v>
+        <v>9.342381828509154</v>
       </c>
       <c r="K18">
-        <v>14.20376559844443</v>
+        <v>10.70482395674124</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.78430095392739</v>
+        <v>25.38852672992869</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.21956582386229</v>
+        <v>11.61059967370062</v>
       </c>
       <c r="C19">
-        <v>8.738351487563357</v>
+        <v>5.330700092485298</v>
       </c>
       <c r="D19">
-        <v>13.67327131452168</v>
+        <v>15.19134296982712</v>
       </c>
       <c r="E19">
-        <v>14.77069373195612</v>
+        <v>16.60944566100974</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>27.57000105782501</v>
+        <v>35.88133965672453</v>
       </c>
       <c r="H19">
-        <v>9.820660736159216</v>
+        <v>16.05258128254066</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.20069992124307</v>
+        <v>9.342383568273505</v>
       </c>
       <c r="K19">
-        <v>14.14850895935932</v>
+        <v>10.68669096078064</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.77976265996721</v>
+        <v>25.39421605110195</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.52919176935153</v>
+        <v>11.72326392175558</v>
       </c>
       <c r="C20">
-        <v>8.87031204702267</v>
+        <v>5.401550527010176</v>
       </c>
       <c r="D20">
-        <v>13.87341055037375</v>
+        <v>15.22444527177795</v>
       </c>
       <c r="E20">
-        <v>14.98473379805382</v>
+        <v>16.64324782865257</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>27.74334076473288</v>
+        <v>35.86285255841634</v>
       </c>
       <c r="H20">
-        <v>9.806234559309237</v>
+        <v>16.03562653460724</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.243941655448115</v>
+        <v>9.342468929762267</v>
       </c>
       <c r="K20">
-        <v>14.39561672750035</v>
+        <v>10.76812468179863</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.80148630555208</v>
+        <v>25.36897921975925</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.53323806071244</v>
+        <v>12.09558802049193</v>
       </c>
       <c r="C21">
-        <v>9.300933960122865</v>
+        <v>5.632244474335225</v>
       </c>
       <c r="D21">
-        <v>14.5369500653957</v>
+        <v>15.33896710800803</v>
       </c>
       <c r="E21">
-        <v>15.69519040386583</v>
+        <v>16.76053427581952</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>28.36787795014233</v>
+        <v>35.81358597349172</v>
       </c>
       <c r="H21">
-        <v>9.768096279728173</v>
+        <v>15.98174159699251</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.39168490640544</v>
+        <v>9.344383449907843</v>
       </c>
       <c r="K21">
-        <v>15.19873696071113</v>
+        <v>11.03857175696971</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.89795779706338</v>
+        <v>25.29059935527412</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.16269887060813</v>
+        <v>12.33390239654133</v>
       </c>
       <c r="C22">
-        <v>9.57279401392384</v>
+        <v>5.777425736660908</v>
       </c>
       <c r="D22">
-        <v>14.96360222310991</v>
+        <v>15.416183501372</v>
       </c>
       <c r="E22">
-        <v>16.15263894861466</v>
+        <v>16.83986581321584</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>28.80808659279396</v>
+        <v>35.79099702435683</v>
       </c>
       <c r="H22">
-        <v>9.751317899047338</v>
+        <v>15.94882278998297</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.49002421518938</v>
+        <v>9.34684378140604</v>
       </c>
       <c r="K22">
-        <v>15.70349137788656</v>
+        <v>11.21268948351721</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.97937544944302</v>
+        <v>25.24416686467217</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.82917215332657</v>
+        <v>12.20719288067337</v>
       </c>
       <c r="C23">
-        <v>9.42857713332632</v>
+        <v>5.700457767526566</v>
       </c>
       <c r="D23">
-        <v>14.73655224398341</v>
+        <v>15.37476083151813</v>
       </c>
       <c r="E23">
-        <v>15.90914149475936</v>
+        <v>16.79728603057172</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>28.57016971626387</v>
+        <v>35.80217187886115</v>
       </c>
       <c r="H23">
-        <v>9.759497983406279</v>
+        <v>15.96618176855056</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.437378770811446</v>
+        <v>9.345420302870162</v>
       </c>
       <c r="K23">
-        <v>15.4359296343095</v>
+        <v>11.12001811435154</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.93418534127368</v>
+        <v>25.26850929153606</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.51232567214035</v>
+        <v>11.71709926682068</v>
       </c>
       <c r="C24">
-        <v>8.863113120286251</v>
+        <v>5.397687120781792</v>
       </c>
       <c r="D24">
-        <v>13.86245225809759</v>
+        <v>15.22261479803953</v>
       </c>
       <c r="E24">
-        <v>14.97301126688654</v>
+        <v>16.64137736886431</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>27.73366497028078</v>
+        <v>35.86381954300781</v>
       </c>
       <c r="H24">
-        <v>9.806989018171127</v>
+        <v>16.03654602383025</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.241557645308458</v>
+        <v>9.342458108851961</v>
       </c>
       <c r="K24">
-        <v>14.38214897992417</v>
+        <v>10.76366387671795</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.80020721924026</v>
+        <v>25.37034101853634</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.97530864518516</v>
+        <v>11.16952175048219</v>
       </c>
       <c r="C25">
-        <v>8.21263640398748</v>
+        <v>5.047857456570708</v>
       </c>
       <c r="D25">
-        <v>12.89218538423542</v>
+        <v>15.06925904418701</v>
       </c>
       <c r="E25">
-        <v>13.93658668478544</v>
+        <v>16.48528313024242</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>26.96457310881832</v>
+        <v>35.97133841881593</v>
       </c>
       <c r="H25">
-        <v>9.890350415005903</v>
+        <v>16.12229889697156</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.038318666523098</v>
+        <v>9.344479039149633</v>
       </c>
       <c r="K25">
-        <v>13.15857284287617</v>
+        <v>10.36982746984862</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.7289188507158</v>
+        <v>25.50067029500297</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_49/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.75323438732901</v>
+        <v>13.74134365598222</v>
       </c>
       <c r="C2">
-        <v>4.771289220509138</v>
+        <v>7.699780904676243</v>
       </c>
       <c r="D2">
-        <v>14.96616765246449</v>
+        <v>12.1580281001068</v>
       </c>
       <c r="E2">
-        <v>16.38130147518428</v>
+        <v>13.15461874069447</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>36.0854662352329</v>
+        <v>26.50684364598688</v>
       </c>
       <c r="H2">
-        <v>16.19390760500136</v>
+        <v>9.976416334707475</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.350473265601769</v>
+        <v>5.895917474257881</v>
       </c>
       <c r="K2">
-        <v>10.07388184593748</v>
+        <v>12.18264828124867</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>25.61415476017342</v>
+        <v>16.73308187302578</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.46477751452044</v>
+        <v>12.84038161561176</v>
       </c>
       <c r="C3">
-        <v>4.572673318459346</v>
+        <v>7.331835429235537</v>
       </c>
       <c r="D3">
-        <v>14.90269282907347</v>
+        <v>11.65077601293778</v>
       </c>
       <c r="E3">
-        <v>16.31791882411145</v>
+        <v>12.61569298908343</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>36.18443169714828</v>
+        <v>26.26060026897825</v>
       </c>
       <c r="H3">
-        <v>16.2477179293135</v>
+        <v>10.04876897681909</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.357354326951455</v>
+        <v>5.804126996469818</v>
       </c>
       <c r="K3">
-        <v>9.870793124858572</v>
+        <v>11.47464923120542</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.70194422641802</v>
+        <v>16.76804040815096</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.28522567712254</v>
+        <v>12.2550173794988</v>
       </c>
       <c r="C4">
-        <v>4.445484807901144</v>
+        <v>7.096231247728523</v>
       </c>
       <c r="D4">
-        <v>14.86695157755296</v>
+        <v>11.3356246463532</v>
       </c>
       <c r="E4">
-        <v>16.28257435831664</v>
+        <v>12.28151692757353</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>36.25579065227989</v>
+        <v>26.13948881490895</v>
       </c>
       <c r="H4">
-        <v>16.28336136712342</v>
+        <v>10.09968521869909</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.362971692164985</v>
+        <v>5.750157223986737</v>
       </c>
       <c r="K4">
-        <v>9.745280013545157</v>
+        <v>11.01713302878064</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.76119623819798</v>
+        <v>16.80429695140317</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.21155469539852</v>
+        <v>12.008354751171</v>
       </c>
       <c r="C5">
-        <v>4.392386596967213</v>
+        <v>6.997854910718529</v>
       </c>
       <c r="D5">
-        <v>14.85321101189618</v>
+        <v>11.20645714169926</v>
       </c>
       <c r="E5">
-        <v>16.26908056395254</v>
+        <v>12.14471334005719</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>36.28752288956449</v>
+        <v>26.0974594219855</v>
       </c>
       <c r="H5">
-        <v>16.29854089919963</v>
+        <v>10.12200596023805</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.365611231871283</v>
+        <v>5.728774256704961</v>
       </c>
       <c r="K5">
-        <v>9.693994760640896</v>
+        <v>10.82500348018789</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.7866842458633</v>
+        <v>16.82263519992518</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.19929471747769</v>
+        <v>11.9669052089412</v>
       </c>
       <c r="C6">
-        <v>4.383494677909749</v>
+        <v>6.981379010367663</v>
       </c>
       <c r="D6">
-        <v>14.85097949919252</v>
+        <v>11.18497016760258</v>
       </c>
       <c r="E6">
-        <v>16.26689515122987</v>
+        <v>12.12196574775082</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>36.29295189415686</v>
+        <v>26.09091541911426</v>
       </c>
       <c r="H6">
-        <v>16.30110097663338</v>
+        <v>10.12580553611094</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.366070696860996</v>
+        <v>5.725260727457727</v>
       </c>
       <c r="K6">
-        <v>9.685472579639075</v>
+        <v>10.79275865442375</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.79099750346484</v>
+        <v>16.82589094348328</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.28423400661879</v>
+        <v>12.25172372622332</v>
       </c>
       <c r="C7">
-        <v>4.444773770305635</v>
+        <v>7.094913986998661</v>
       </c>
       <c r="D7">
-        <v>14.8667629156745</v>
+        <v>11.33388538243161</v>
       </c>
       <c r="E7">
-        <v>16.28238868065919</v>
+        <v>12.27967419481802</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>36.25620787806669</v>
+        <v>26.13889266815806</v>
       </c>
       <c r="H7">
-        <v>16.28356343362785</v>
+        <v>10.09997995681552</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.363005870761045</v>
+        <v>5.749866364066191</v>
       </c>
       <c r="K7">
-        <v>9.744588829422481</v>
+        <v>11.01456485993572</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.76153454697317</v>
+        <v>16.80453004426735</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.65434512843992</v>
+        <v>13.43734766553534</v>
       </c>
       <c r="C8">
-        <v>4.703920899564032</v>
+        <v>7.574960786118458</v>
       </c>
       <c r="D8">
-        <v>14.94361779936759</v>
+        <v>11.9840013362659</v>
       </c>
       <c r="E8">
-        <v>16.35871253285543</v>
+        <v>12.9695891408513</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>36.11738440745548</v>
+        <v>26.41555764577438</v>
       </c>
       <c r="H8">
-        <v>16.21192090672318</v>
+        <v>9.999978999407771</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.352557069739941</v>
+        <v>5.863777909237816</v>
       </c>
       <c r="K8">
-        <v>10.00406605852346</v>
+        <v>11.94328501107936</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.6433127974902</v>
+        <v>16.74197112438624</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.35623787463041</v>
+        <v>15.5088139795547</v>
       </c>
       <c r="C9">
-        <v>5.168723923973403</v>
+        <v>8.437098567718811</v>
       </c>
       <c r="D9">
-        <v>15.11942811778435</v>
+        <v>13.2223867165689</v>
       </c>
       <c r="E9">
-        <v>16.5361989828056</v>
+        <v>14.28895298788707</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>35.92966639874251</v>
+        <v>27.20633676934131</v>
       </c>
       <c r="H9">
-        <v>16.09209692505834</v>
+        <v>9.858244416191541</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.34309950063523</v>
+        <v>6.105681317714623</v>
       </c>
       <c r="K9">
-        <v>10.50357043454236</v>
+        <v>13.58238813788642</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>25.4540399252061</v>
+        <v>16.74370655954019</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.85174779217004</v>
+        <v>16.87882521690306</v>
       </c>
       <c r="C10">
-        <v>5.481734542846938</v>
+        <v>9.019813246000073</v>
       </c>
       <c r="D10">
-        <v>15.26309238434761</v>
+        <v>14.10200315547362</v>
       </c>
       <c r="E10">
-        <v>16.6827720408696</v>
+        <v>15.2293489998395</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>35.84384551858346</v>
+        <v>27.94998486137757</v>
       </c>
       <c r="H10">
-        <v>16.01667177628809</v>
+        <v>9.791425168864528</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.342852732029375</v>
+        <v>6.294096088096529</v>
       </c>
       <c r="K10">
-        <v>10.86122581032309</v>
+        <v>14.6749815314582</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.34108482996346</v>
+        <v>16.83051503283807</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.07174676256857</v>
+        <v>17.46974181295341</v>
       </c>
       <c r="C11">
-        <v>5.617619542452086</v>
+        <v>9.273587129145582</v>
       </c>
       <c r="D11">
-        <v>15.33140619922412</v>
+        <v>14.49435516640966</v>
       </c>
       <c r="E11">
-        <v>16.75277625862773</v>
+        <v>15.64954711895419</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>35.81621895115292</v>
+        <v>28.32555391685184</v>
       </c>
       <c r="H11">
-        <v>15.98509936342068</v>
+        <v>9.770102180459718</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.344188832202468</v>
+        <v>6.382006577243128</v>
       </c>
       <c r="K11">
-        <v>11.02119507122504</v>
+        <v>15.14787134015258</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.29539917316008</v>
+        <v>16.89065391053729</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.15419954445891</v>
+        <v>17.68891661090919</v>
       </c>
       <c r="C12">
-        <v>5.668118463252393</v>
+        <v>9.368043360080513</v>
       </c>
       <c r="D12">
-        <v>15.35768320676681</v>
+        <v>14.64173176184753</v>
       </c>
       <c r="E12">
-        <v>16.7797462824064</v>
+        <v>15.807491541664</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>35.80740560261717</v>
+        <v>28.47326203381272</v>
       </c>
       <c r="H12">
-        <v>15.973537815591</v>
+        <v>9.763418056449304</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.344902290537087</v>
+        <v>6.415602488598868</v>
       </c>
       <c r="K12">
-        <v>11.08132386753079</v>
+        <v>15.32348864831256</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.27892114979549</v>
+        <v>16.9165652389422</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.13648110183564</v>
+        <v>17.64191676405015</v>
       </c>
       <c r="C13">
-        <v>5.657285532044016</v>
+        <v>9.347773758990584</v>
       </c>
       <c r="D13">
-        <v>15.35200612326302</v>
+        <v>14.61004592654729</v>
       </c>
       <c r="E13">
-        <v>16.77391759218662</v>
+        <v>15.77352877525376</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>35.80923031026455</v>
+        <v>28.44120450924216</v>
       </c>
       <c r="H13">
-        <v>15.97601026156499</v>
+        <v>9.764794354003534</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.344739418838964</v>
+        <v>6.408353541870629</v>
       </c>
       <c r="K13">
-        <v>11.06839483090719</v>
+        <v>15.28581970034652</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.28243337921093</v>
+        <v>16.91084253644765</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.07854778049089</v>
+        <v>17.48786517850479</v>
       </c>
       <c r="C14">
-        <v>5.621793429499935</v>
+        <v>9.281391087305947</v>
       </c>
       <c r="D14">
-        <v>15.3335599500724</v>
+        <v>14.50650432978378</v>
       </c>
       <c r="E14">
-        <v>16.75498596394055</v>
+        <v>15.6625652653474</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>35.81546080269408</v>
+        <v>28.33759529103455</v>
       </c>
       <c r="H14">
-        <v>15.98414028450819</v>
+        <v>9.769523901779479</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.344243374842378</v>
+        <v>6.38476445189405</v>
       </c>
       <c r="K14">
-        <v>11.02615118938968</v>
+        <v>15.16238862938318</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.29402702389631</v>
+        <v>16.89272179945438</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.04294827235428</v>
+        <v>17.39290769612409</v>
       </c>
       <c r="C15">
-        <v>5.599928159671877</v>
+        <v>9.240515517191779</v>
       </c>
       <c r="D15">
-        <v>15.32231374083409</v>
+        <v>14.44292402236363</v>
       </c>
       <c r="E15">
-        <v>16.74344928970431</v>
+        <v>15.5944417015038</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>35.81949199544274</v>
+        <v>28.27484987205688</v>
       </c>
       <c r="H15">
-        <v>15.98917151168455</v>
+        <v>9.772604574888781</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.343966532642254</v>
+        <v>6.370355037577881</v>
       </c>
       <c r="K15">
-        <v>11.00021579681795</v>
+        <v>15.08633405706721</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.30123561323477</v>
+        <v>16.88203597049366</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.83725463223602</v>
+        <v>16.83956179311772</v>
       </c>
       <c r="C16">
-        <v>5.472721243626664</v>
+        <v>9.002999435101948</v>
       </c>
       <c r="D16">
-        <v>15.25868599300845</v>
+        <v>14.07619812820598</v>
       </c>
       <c r="E16">
-        <v>16.67826257656902</v>
+        <v>15.20172764937166</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>35.84588127247433</v>
+        <v>27.92620201262904</v>
       </c>
       <c r="H16">
-        <v>16.01879025435071</v>
+        <v>9.793008486943865</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.342794496110999</v>
+        <v>6.288394295203828</v>
       </c>
       <c r="K16">
-        <v>10.85071168228959</v>
+        <v>14.64359249568227</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.34418539466526</v>
+        <v>16.82701478718501</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.70962462585712</v>
+        <v>16.49186404159646</v>
       </c>
       <c r="C17">
-        <v>5.393000708563831</v>
+        <v>8.854381149182139</v>
       </c>
       <c r="D17">
-        <v>15.2203983084775</v>
+        <v>13.84916648198498</v>
       </c>
       <c r="E17">
-        <v>16.63911265674324</v>
+        <v>14.95879941146577</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>35.86499886441887</v>
+        <v>27.72196261824946</v>
       </c>
       <c r="H17">
-        <v>16.03766216268626</v>
+        <v>9.807909206219584</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.342445934114659</v>
+        <v>6.238669806205204</v>
       </c>
       <c r="K17">
-        <v>10.75825592164389</v>
+        <v>14.36581125437643</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.37199512623465</v>
+        <v>16.79867033702619</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.63571011642519</v>
+        <v>16.2888330763445</v>
       </c>
       <c r="C18">
-        <v>5.346536356876512</v>
+        <v>8.767836184742887</v>
       </c>
       <c r="D18">
-        <v>15.19865597929975</v>
+        <v>13.71785407547452</v>
       </c>
       <c r="E18">
-        <v>16.61690895270867</v>
+        <v>14.81836248776881</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>35.87706876831448</v>
+        <v>27.60799211868397</v>
       </c>
       <c r="H18">
-        <v>16.04877455645112</v>
+        <v>9.817328359134549</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.342381828509154</v>
+        <v>6.210277189326946</v>
       </c>
       <c r="K18">
-        <v>10.70482395674124</v>
+        <v>14.20376559844444</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>25.38852672992869</v>
+        <v>16.78430095392729</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.61059967370062</v>
+        <v>16.21956582386227</v>
       </c>
       <c r="C19">
-        <v>5.330700092485298</v>
+        <v>8.738351487563362</v>
       </c>
       <c r="D19">
-        <v>15.19134296982712</v>
+        <v>13.6732713145217</v>
       </c>
       <c r="E19">
-        <v>16.60944566100974</v>
+        <v>14.77069373195613</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>35.88133965672453</v>
+        <v>27.57000105782497</v>
       </c>
       <c r="H19">
-        <v>16.05258128254066</v>
+        <v>9.820660736159176</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.342383568273505</v>
+        <v>6.200699921243062</v>
       </c>
       <c r="K19">
-        <v>10.68669096078064</v>
+        <v>14.14850895935932</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>25.39421605110195</v>
+        <v>16.77976265996713</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.72326392175558</v>
+        <v>16.52919176935153</v>
       </c>
       <c r="C20">
-        <v>5.401550527010176</v>
+        <v>8.870312047022711</v>
       </c>
       <c r="D20">
-        <v>15.22444527177795</v>
+        <v>13.87341055037374</v>
       </c>
       <c r="E20">
-        <v>16.64324782865257</v>
+        <v>14.9847337980538</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>35.86285255841634</v>
+        <v>27.74334076473261</v>
       </c>
       <c r="H20">
-        <v>16.03562653460724</v>
+        <v>9.806234559309178</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.342468929762267</v>
+        <v>6.243941655448055</v>
       </c>
       <c r="K20">
-        <v>10.76812468179863</v>
+        <v>14.39561672750035</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>25.36897921975925</v>
+        <v>16.80148630555192</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.09558802049193</v>
+        <v>17.53323806071242</v>
       </c>
       <c r="C21">
-        <v>5.632244474335225</v>
+        <v>9.300933960122986</v>
       </c>
       <c r="D21">
-        <v>15.33896710800803</v>
+        <v>14.53695006539573</v>
       </c>
       <c r="E21">
-        <v>16.76053427581952</v>
+        <v>15.69519040386582</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>35.81358597349172</v>
+        <v>28.36787795014219</v>
       </c>
       <c r="H21">
-        <v>15.98174159699251</v>
+        <v>9.76809627972818</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.344383449907843</v>
+        <v>6.391684906405416</v>
       </c>
       <c r="K21">
-        <v>11.03857175696971</v>
+        <v>15.19873696071113</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.29059935527412</v>
+        <v>16.89795779706331</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.33390239654133</v>
+        <v>18.16269887060811</v>
       </c>
       <c r="C22">
-        <v>5.777425736660908</v>
+        <v>9.572794013923826</v>
       </c>
       <c r="D22">
-        <v>15.416183501372</v>
+        <v>14.96360222310991</v>
       </c>
       <c r="E22">
-        <v>16.83986581321584</v>
+        <v>16.15263894861467</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>35.79099702435683</v>
+        <v>28.80808659279403</v>
       </c>
       <c r="H22">
-        <v>15.94882278998297</v>
+        <v>9.751317899047338</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.34684378140604</v>
+        <v>6.490024215189358</v>
       </c>
       <c r="K22">
-        <v>11.21268948351721</v>
+        <v>15.70349137788654</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.24416686467217</v>
+        <v>16.97937544944307</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.20719288067337</v>
+        <v>17.82917215332656</v>
       </c>
       <c r="C23">
-        <v>5.700457767526566</v>
+        <v>9.428577133326071</v>
       </c>
       <c r="D23">
-        <v>15.37476083151813</v>
+        <v>14.73655224398343</v>
       </c>
       <c r="E23">
-        <v>16.79728603057172</v>
+        <v>15.90914149475938</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>35.80217187886115</v>
+        <v>28.57016971626381</v>
       </c>
       <c r="H23">
-        <v>15.96618176855056</v>
+        <v>9.759497983406213</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.345420302870162</v>
+        <v>6.437378770811486</v>
       </c>
       <c r="K23">
-        <v>11.12001811435154</v>
+        <v>15.43592963430946</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.26850929153606</v>
+        <v>16.9341853412736</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.71709926682068</v>
+        <v>16.51232567214036</v>
       </c>
       <c r="C24">
-        <v>5.397687120781792</v>
+        <v>8.863113120286238</v>
       </c>
       <c r="D24">
-        <v>15.22261479803953</v>
+        <v>13.86245225809753</v>
       </c>
       <c r="E24">
-        <v>16.64137736886431</v>
+        <v>14.97301126688654</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>35.86381954300781</v>
+        <v>27.73366497028072</v>
       </c>
       <c r="H24">
-        <v>16.03654602383025</v>
+        <v>9.806989018171169</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.342458108851961</v>
+        <v>6.241557645308501</v>
       </c>
       <c r="K24">
-        <v>10.76366387671795</v>
+        <v>14.38214897992416</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>25.37034101853634</v>
+        <v>16.80020721924024</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.16952175048219</v>
+        <v>14.97530864518524</v>
       </c>
       <c r="C25">
-        <v>5.047857456570708</v>
+        <v>8.21263640398748</v>
       </c>
       <c r="D25">
-        <v>15.06925904418701</v>
+        <v>12.89218538423542</v>
       </c>
       <c r="E25">
-        <v>16.48528313024242</v>
+        <v>13.93658668478547</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>35.97133841881593</v>
+        <v>26.96457310881802</v>
       </c>
       <c r="H25">
-        <v>16.12229889697156</v>
+        <v>9.890350415005809</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.344479039149633</v>
+        <v>6.038318666523109</v>
       </c>
       <c r="K25">
-        <v>10.36982746984862</v>
+        <v>13.15857284287625</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>25.50067029500297</v>
+        <v>16.72891885071562</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_49/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.74134365598222</v>
+        <v>12.7824335898547</v>
       </c>
       <c r="C2">
-        <v>7.699780904676243</v>
+        <v>8.388754784394408</v>
       </c>
       <c r="D2">
-        <v>12.1580281001068</v>
+        <v>12.52786738119789</v>
       </c>
       <c r="E2">
-        <v>13.15461874069447</v>
+        <v>13.89318884738505</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>26.50684364598688</v>
+        <v>25.31868227829739</v>
       </c>
       <c r="H2">
-        <v>9.976416334707475</v>
+        <v>2.039693445856511</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.687760557532402</v>
       </c>
       <c r="J2">
-        <v>5.895917474257881</v>
+        <v>9.746747825091626</v>
       </c>
       <c r="K2">
-        <v>12.18264828124867</v>
+        <v>14.62636301703563</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.479116850833287</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.70623240416587</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.73308187302578</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.62963486088649</v>
+      </c>
+      <c r="Q2">
+        <v>16.19805310564465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.84038161561176</v>
+        <v>11.95132387796253</v>
       </c>
       <c r="C3">
-        <v>7.331835429235537</v>
+        <v>7.892991249785533</v>
       </c>
       <c r="D3">
-        <v>11.65077601293778</v>
+        <v>11.97307127276441</v>
       </c>
       <c r="E3">
-        <v>12.61569298908343</v>
+        <v>13.2507586534789</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>26.26060026897825</v>
+        <v>24.86963222979865</v>
       </c>
       <c r="H3">
-        <v>10.04876897681909</v>
+        <v>2.260279592584314</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.820652537137915</v>
       </c>
       <c r="J3">
-        <v>5.804126996469818</v>
+        <v>9.743823543773718</v>
       </c>
       <c r="K3">
-        <v>11.47464923120542</v>
+        <v>14.66743916369906</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.283665830061869</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.00987521411496</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.76804040815096</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.75881662071065</v>
+      </c>
+      <c r="Q3">
+        <v>16.0991213990093</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.2550173794988</v>
+        <v>11.40794558164304</v>
       </c>
       <c r="C4">
-        <v>7.096231247728523</v>
+        <v>7.575812366978631</v>
       </c>
       <c r="D4">
-        <v>11.3356246463532</v>
+        <v>11.62121899970965</v>
       </c>
       <c r="E4">
-        <v>12.28151692757353</v>
+        <v>12.8404371837651</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>26.13948881490895</v>
+        <v>24.59911113861348</v>
       </c>
       <c r="H4">
-        <v>10.09968521869909</v>
+        <v>2.400944852617096</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.906157119507666</v>
       </c>
       <c r="J4">
-        <v>5.750157223986737</v>
+        <v>9.744503855774257</v>
       </c>
       <c r="K4">
-        <v>11.01713302878064</v>
+        <v>14.69600927666653</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.159756040453252</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.55845558060828</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.80429695140317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.83974732098356</v>
+      </c>
+      <c r="Q4">
+        <v>16.04303087902314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.008354751171</v>
+        <v>11.17314968434138</v>
       </c>
       <c r="C5">
-        <v>6.997854910718529</v>
+        <v>7.452336809596726</v>
       </c>
       <c r="D5">
-        <v>11.20645714169926</v>
+        <v>11.47510339659885</v>
       </c>
       <c r="E5">
-        <v>12.14471334005719</v>
+        <v>12.66922389097873</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>26.0974594219855</v>
+        <v>24.4801737601343</v>
       </c>
       <c r="H5">
-        <v>10.12200596023805</v>
+        <v>2.45980251985021</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.944901673635901</v>
       </c>
       <c r="J5">
-        <v>5.728774256704961</v>
+        <v>9.74373829779827</v>
       </c>
       <c r="K5">
-        <v>10.82500348018789</v>
+        <v>14.7041901990698</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.108208968010215</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.36852213639136</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.82263519992518</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.87293121234646</v>
+      </c>
+      <c r="Q5">
+        <v>16.01717897611052</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.9669052089412</v>
+        <v>11.12751249954125</v>
       </c>
       <c r="C6">
-        <v>6.981379010367663</v>
+        <v>7.44260252964601</v>
       </c>
       <c r="D6">
-        <v>11.18497016760258</v>
+        <v>11.4505861986432</v>
       </c>
       <c r="E6">
-        <v>12.12196574775082</v>
+        <v>12.64037126157042</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>26.09091541911426</v>
+        <v>24.44817796763746</v>
       </c>
       <c r="H6">
-        <v>10.12580553611094</v>
+        <v>2.469907548118279</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.95514654134009</v>
       </c>
       <c r="J6">
-        <v>5.725260727457727</v>
+        <v>9.741626703280547</v>
       </c>
       <c r="K6">
-        <v>10.79275865442375</v>
+        <v>14.70036430842913</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.099464111838963</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.33659790943458</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.82589094348328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.87821593163081</v>
+      </c>
+      <c r="Q6">
+        <v>16.00788156983474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.25172372622332</v>
+        <v>11.38842718075515</v>
       </c>
       <c r="C7">
-        <v>7.094913986998661</v>
+        <v>7.603452731975617</v>
       </c>
       <c r="D7">
-        <v>11.33388538243161</v>
+        <v>11.61899334592535</v>
       </c>
       <c r="E7">
-        <v>12.27967419481802</v>
+        <v>12.83762549574456</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>26.13889266815806</v>
+        <v>24.56403205431599</v>
       </c>
       <c r="H7">
-        <v>10.09997995681552</v>
+        <v>2.402406874668505</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.916599543037947</v>
       </c>
       <c r="J7">
-        <v>5.749866364066191</v>
+        <v>9.73898522608318</v>
       </c>
       <c r="K7">
-        <v>11.01456485993572</v>
+        <v>14.68183610042543</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.158719579833356</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.555843532571</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.80453004426735</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.8395595619599</v>
+      </c>
+      <c r="Q7">
+        <v>16.02886595475085</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.43734766553534</v>
+        <v>12.48269603342335</v>
       </c>
       <c r="C8">
-        <v>7.574960786118458</v>
+        <v>8.256556425970169</v>
       </c>
       <c r="D8">
-        <v>11.9840013362659</v>
+        <v>12.33867251780023</v>
       </c>
       <c r="E8">
-        <v>12.9695891408513</v>
+        <v>13.67443211963739</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>26.41555764577438</v>
+        <v>25.11958179107228</v>
       </c>
       <c r="H8">
-        <v>9.999978999407771</v>
+        <v>2.115517316663631</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.745500368211341</v>
       </c>
       <c r="J8">
-        <v>5.863777909237816</v>
+        <v>9.737994943548886</v>
       </c>
       <c r="K8">
-        <v>11.94328501107936</v>
+        <v>14.62099969112165</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.412133924017914</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.47100966974287</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.74197112438624</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.67323110053817</v>
+      </c>
+      <c r="Q8">
+        <v>16.14491908670019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.5088139795547</v>
+        <v>14.39338145741982</v>
       </c>
       <c r="C9">
-        <v>8.437098567718811</v>
+        <v>9.387650179328524</v>
       </c>
       <c r="D9">
-        <v>13.2223867165689</v>
+        <v>13.65530684569333</v>
       </c>
       <c r="E9">
-        <v>14.28895298788707</v>
+        <v>15.18506062037639</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>27.20633676934131</v>
+        <v>26.3048217161945</v>
       </c>
       <c r="H9">
-        <v>9.858244416191541</v>
+        <v>1.592526416209944</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.531642413661113</v>
       </c>
       <c r="J9">
-        <v>6.105681317714623</v>
+        <v>9.766040082279178</v>
       </c>
       <c r="K9">
-        <v>13.58238813788642</v>
+        <v>14.55473533591243</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.877333600729667</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.07521847820566</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.74370655954019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.36026944064793</v>
+      </c>
+      <c r="Q9">
+        <v>16.43444151444475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.87882521690306</v>
+        <v>15.61036792334559</v>
       </c>
       <c r="C10">
-        <v>9.019813246000073</v>
+        <v>10.12678034954859</v>
       </c>
       <c r="D10">
-        <v>14.10200315547362</v>
+        <v>14.42123610647265</v>
       </c>
       <c r="E10">
-        <v>15.2293489998395</v>
+        <v>15.95747241591698</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>27.94998486137757</v>
+        <v>27.01490017246543</v>
       </c>
       <c r="H10">
-        <v>9.791425168864528</v>
+        <v>1.869659093557767</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.743497913072894</v>
       </c>
       <c r="J10">
-        <v>6.294096088096529</v>
+        <v>9.769631392190536</v>
       </c>
       <c r="K10">
-        <v>14.6749815314582</v>
+        <v>14.47388293733269</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.093320895858718</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.10836411698405</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.83051503283807</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>12.13937364921504</v>
+      </c>
+      <c r="Q10">
+        <v>16.59505511437114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.46974181295341</v>
+        <v>15.91687454016614</v>
       </c>
       <c r="C11">
-        <v>9.273587129145582</v>
+        <v>10.1408426773534</v>
       </c>
       <c r="D11">
-        <v>14.49435516640966</v>
+        <v>13.58267292139536</v>
       </c>
       <c r="E11">
-        <v>15.64954711895419</v>
+        <v>14.15376165861936</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>28.32555391685184</v>
+        <v>25.87618454369431</v>
       </c>
       <c r="H11">
-        <v>9.770102180459718</v>
+        <v>2.78278904554942</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.805083629800514</v>
       </c>
       <c r="J11">
-        <v>6.382006577243128</v>
+        <v>9.526720667904176</v>
       </c>
       <c r="K11">
-        <v>15.14787134015258</v>
+        <v>14.04403417830033</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.34382047836591</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.3117965932601</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.89065391053729</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.0674802981439</v>
+      </c>
+      <c r="Q11">
+        <v>16.05125983440602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.68891661090919</v>
+        <v>15.94762627306356</v>
       </c>
       <c r="C12">
-        <v>9.368043360080513</v>
+        <v>9.966155637749754</v>
       </c>
       <c r="D12">
-        <v>14.64173176184753</v>
+        <v>12.7059988235614</v>
       </c>
       <c r="E12">
-        <v>15.807491541664</v>
+        <v>12.49525124845248</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>28.47326203381272</v>
+        <v>24.793803565706</v>
       </c>
       <c r="H12">
-        <v>9.763418056449304</v>
+        <v>4.074382928380274</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.810036392165353</v>
       </c>
       <c r="J12">
-        <v>6.415602488598868</v>
+        <v>9.32642871411946</v>
       </c>
       <c r="K12">
-        <v>15.32348864831256</v>
+        <v>13.71982041121915</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.757996044124006</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.27291069376513</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.9165652389422</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.06352065112132</v>
+      </c>
+      <c r="Q12">
+        <v>15.57168900907376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.64191676405015</v>
+        <v>15.75067665927363</v>
       </c>
       <c r="C13">
-        <v>9.347773758990584</v>
+        <v>9.665776289239783</v>
       </c>
       <c r="D13">
-        <v>14.61004592654729</v>
+        <v>11.72611378733838</v>
       </c>
       <c r="E13">
-        <v>15.77352877525376</v>
+        <v>10.83083087547464</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>28.44120450924216</v>
+        <v>23.6281339078388</v>
       </c>
       <c r="H13">
-        <v>9.764794354003534</v>
+        <v>5.460754911936474</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.777034947381666</v>
       </c>
       <c r="J13">
-        <v>6.408353541870629</v>
+        <v>9.13844340773294</v>
       </c>
       <c r="K13">
-        <v>15.28581970034652</v>
+        <v>13.43615986500053</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.285313056323446</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.04457858486994</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.91084253644765</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.10825785611672</v>
+      </c>
+      <c r="Q13">
+        <v>15.09015256286911</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.48786517850479</v>
+        <v>15.50341584116082</v>
       </c>
       <c r="C14">
-        <v>9.281391087305947</v>
+        <v>9.401939785217992</v>
       </c>
       <c r="D14">
-        <v>14.50650432978378</v>
+        <v>10.98490026135654</v>
       </c>
       <c r="E14">
-        <v>15.6625652653474</v>
+        <v>9.6782788708514</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>28.33759529103455</v>
+        <v>22.76402478502424</v>
       </c>
       <c r="H14">
-        <v>9.769523901779479</v>
+        <v>6.49181688201887</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.73821481735567</v>
       </c>
       <c r="J14">
-        <v>6.38476445189405</v>
+        <v>9.011984629376887</v>
       </c>
       <c r="K14">
-        <v>15.16238862938318</v>
+        <v>13.25480289334397</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.04076435637094</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.79624707731702</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.89272179945438</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.16178700463338</v>
+      </c>
+      <c r="Q14">
+        <v>14.75027293061969</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.39290769612409</v>
+        <v>15.38840516261053</v>
       </c>
       <c r="C15">
-        <v>9.240515517191779</v>
+        <v>9.318459698675738</v>
       </c>
       <c r="D15">
-        <v>14.44292402236363</v>
+        <v>10.78169341577855</v>
       </c>
       <c r="E15">
-        <v>15.5944417015038</v>
+        <v>9.393458132474112</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>28.27484987205688</v>
+        <v>22.52727674270468</v>
       </c>
       <c r="H15">
-        <v>9.772604574888781</v>
+        <v>6.730678786306372</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.722084470398387</v>
       </c>
       <c r="J15">
-        <v>6.370355037577881</v>
+        <v>8.982629053871555</v>
       </c>
       <c r="K15">
-        <v>15.08633405706721</v>
+        <v>13.21527304686574</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>4.992835686950222</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.69416902337094</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.88203597049366</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.18402704838706</v>
+      </c>
+      <c r="Q15">
+        <v>14.66396109239592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.83956179311772</v>
+        <v>14.90921733623613</v>
       </c>
       <c r="C16">
-        <v>9.002999435101948</v>
+        <v>9.067947692099466</v>
       </c>
       <c r="D16">
-        <v>14.07619812820598</v>
+        <v>10.60401589436804</v>
       </c>
       <c r="E16">
-        <v>15.20172764937166</v>
+        <v>9.319518151342814</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>27.92620201262904</v>
+        <v>22.41063344959357</v>
       </c>
       <c r="H16">
-        <v>9.793008486943865</v>
+        <v>6.524920299135323</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.641555966996077</v>
       </c>
       <c r="J16">
-        <v>6.288394295203828</v>
+        <v>9.01592885019941</v>
       </c>
       <c r="K16">
-        <v>14.64359249568227</v>
+        <v>13.30076611893793</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>4.979818547464481</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.30135888085234</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.82701478718501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.26101428374689</v>
+      </c>
+      <c r="Q16">
+        <v>14.68110247879249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.49186404159646</v>
+        <v>14.6708423325022</v>
       </c>
       <c r="C17">
-        <v>8.854381149182139</v>
+        <v>9.020330004469731</v>
       </c>
       <c r="D17">
-        <v>13.84916648198498</v>
+        <v>10.87467276065311</v>
       </c>
       <c r="E17">
-        <v>14.95879941146577</v>
+        <v>9.877716005696129</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>27.72196261824946</v>
+        <v>22.78730318727273</v>
       </c>
       <c r="H17">
-        <v>9.807909206219584</v>
+        <v>5.787601484386148</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.600446813231151</v>
       </c>
       <c r="J17">
-        <v>6.238669806205204</v>
+        <v>9.10850939420448</v>
       </c>
       <c r="K17">
-        <v>14.36581125437643</v>
+        <v>13.46126796468037</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.083795001264602</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.13206666490995</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.79867033702619</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.29283503065862</v>
+      </c>
+      <c r="Q17">
+        <v>14.87524628064138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.2888330763445</v>
+        <v>14.63196697394508</v>
       </c>
       <c r="C18">
-        <v>8.767836184742887</v>
+        <v>9.12708376698372</v>
       </c>
       <c r="D18">
-        <v>13.71785407547452</v>
+        <v>11.56530186476695</v>
       </c>
       <c r="E18">
-        <v>14.81836248776881</v>
+        <v>11.10683149417101</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>27.60799211868397</v>
+        <v>23.65192450776409</v>
       </c>
       <c r="H18">
-        <v>9.817328359134549</v>
+        <v>4.527833149571163</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.585508477429132</v>
       </c>
       <c r="J18">
-        <v>6.210277189326946</v>
+        <v>9.266267003508432</v>
       </c>
       <c r="K18">
-        <v>14.20376559844444</v>
+        <v>13.71648158271464</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.388583359025866</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.14257483042439</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.78430095392729</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.29287519209218</v>
+      </c>
+      <c r="Q18">
+        <v>15.25295023580008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.21956582386227</v>
+        <v>14.73349106294243</v>
       </c>
       <c r="C19">
-        <v>8.738351487563362</v>
+        <v>9.394513204658303</v>
       </c>
       <c r="D19">
-        <v>13.6732713145217</v>
+        <v>12.5369959545941</v>
       </c>
       <c r="E19">
-        <v>14.77069373195613</v>
+        <v>12.83454031596646</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>27.57000105782497</v>
+        <v>24.78865478697791</v>
       </c>
       <c r="H19">
-        <v>9.820660736159176</v>
+        <v>3.019833431052509</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.604786039088886</v>
       </c>
       <c r="J19">
-        <v>6.200699921243062</v>
+        <v>9.457013005043486</v>
       </c>
       <c r="K19">
-        <v>14.14850895935932</v>
+        <v>14.01136915413161</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.936367299116306</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.2978581713259</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.77976265996713</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.27480731319424</v>
+      </c>
+      <c r="Q19">
+        <v>15.73004797444147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.52919176935153</v>
+        <v>15.26064344247222</v>
       </c>
       <c r="C20">
-        <v>8.870312047022711</v>
+        <v>10.00683790934811</v>
       </c>
       <c r="D20">
-        <v>13.87341055037374</v>
+        <v>14.21700655302545</v>
       </c>
       <c r="E20">
-        <v>14.9847337980538</v>
+        <v>15.74621360376485</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>27.74334076473261</v>
+        <v>26.72499518253332</v>
       </c>
       <c r="H20">
-        <v>9.806234559309178</v>
+        <v>1.778006923742616</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.70039702071989</v>
       </c>
       <c r="J20">
-        <v>6.243941655448055</v>
+        <v>9.749986544493057</v>
       </c>
       <c r="K20">
-        <v>14.39561672750035</v>
+        <v>14.44830451353172</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.032043570103476</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.84327538635574</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.80148630555192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>12.19668660759381</v>
+      </c>
+      <c r="Q20">
+        <v>16.50731812849665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.53323806071242</v>
+        <v>16.19151301605961</v>
       </c>
       <c r="C21">
-        <v>9.300933960122986</v>
+        <v>10.59755876616268</v>
       </c>
       <c r="D21">
-        <v>14.53695006539573</v>
+        <v>14.99551896578587</v>
       </c>
       <c r="E21">
-        <v>15.69519040386582</v>
+        <v>16.70295814061434</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>28.36787795014219</v>
+        <v>27.55150872863776</v>
       </c>
       <c r="H21">
-        <v>9.76809627972818</v>
+        <v>2.051562162454783</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.864380134206159</v>
       </c>
       <c r="J21">
-        <v>6.391684906405416</v>
+        <v>9.803475006539189</v>
       </c>
       <c r="K21">
-        <v>15.19873696071113</v>
+        <v>14.46940362529391</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.353294429895933</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.64312164034293</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.89795779706331</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.02675715205947</v>
+      </c>
+      <c r="Q21">
+        <v>16.75514019153688</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.16269887060811</v>
+        <v>16.77478326426649</v>
       </c>
       <c r="C22">
-        <v>9.572794013923826</v>
+        <v>10.9240440124072</v>
       </c>
       <c r="D22">
-        <v>14.96360222310991</v>
+        <v>15.42097976985376</v>
       </c>
       <c r="E22">
-        <v>16.15263894861467</v>
+        <v>17.18212957706816</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>28.80808659279403</v>
+        <v>28.04718313823453</v>
       </c>
       <c r="H22">
-        <v>9.751317899047338</v>
+        <v>2.220312756728219</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.962995789394816</v>
       </c>
       <c r="J22">
-        <v>6.490024215189358</v>
+        <v>9.833862301561503</v>
       </c>
       <c r="K22">
-        <v>15.70349137788654</v>
+        <v>14.48294657059415</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.505613324176347</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.13001242281594</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.97937544944307</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>11.9177359264616</v>
+      </c>
+      <c r="Q22">
+        <v>16.90278290790347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.82917215332656</v>
+        <v>16.48004670975979</v>
       </c>
       <c r="C23">
-        <v>9.428577133326071</v>
+        <v>10.72519601963503</v>
       </c>
       <c r="D23">
-        <v>14.73655224398343</v>
+        <v>15.19533711427256</v>
       </c>
       <c r="E23">
-        <v>15.90914149475938</v>
+        <v>16.92832974056343</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>28.57016971626381</v>
+        <v>27.81719658129546</v>
       </c>
       <c r="H23">
-        <v>9.759497983406213</v>
+        <v>2.131209982508872</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.90601239091016</v>
       </c>
       <c r="J23">
-        <v>6.437378770811486</v>
+        <v>9.823627536985221</v>
       </c>
       <c r="K23">
-        <v>15.43592963430946</v>
+        <v>14.49183911933955</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.42499831374909</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.87217343930197</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.9341853412736</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>11.97579169795757</v>
+      </c>
+      <c r="Q23">
+        <v>16.8387740776899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.51232567214036</v>
+        <v>15.2862330336731</v>
       </c>
       <c r="C24">
-        <v>8.863113120286238</v>
+        <v>9.987676397715141</v>
       </c>
       <c r="D24">
-        <v>13.86245225809753</v>
+        <v>14.31404435816346</v>
       </c>
       <c r="E24">
-        <v>14.97301126688654</v>
+        <v>15.93310686464229</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>27.73366497028072</v>
+        <v>26.89723014097888</v>
       </c>
       <c r="H24">
-        <v>9.806989018171169</v>
+        <v>1.785030274204432</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.693506921901471</v>
       </c>
       <c r="J24">
-        <v>6.241557645308501</v>
+        <v>9.780627464345841</v>
       </c>
       <c r="K24">
-        <v>14.38214897992416</v>
+        <v>14.50782697682203</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.110801930486509</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.85274329447332</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.80020721924024</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.19811708400604</v>
+      </c>
+      <c r="Q24">
+        <v>16.58218434270275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.97530864518524</v>
+        <v>13.8795948743987</v>
       </c>
       <c r="C25">
-        <v>8.21263640398748</v>
+        <v>9.137606770812113</v>
       </c>
       <c r="D25">
-        <v>12.89218538423542</v>
+        <v>13.3096862233982</v>
       </c>
       <c r="E25">
-        <v>13.93658668478547</v>
+        <v>14.79033885550474</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>26.96457310881802</v>
+        <v>25.92371863672408</v>
       </c>
       <c r="H25">
-        <v>9.890350415005809</v>
+        <v>1.730824252338136</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.526778331895546</v>
       </c>
       <c r="J25">
-        <v>6.038318666523109</v>
+        <v>9.74645019562071</v>
       </c>
       <c r="K25">
-        <v>13.15857284287625</v>
+        <v>14.54401848647228</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.754596712458509</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.66164938891449</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.72891885071562</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.44318852398406</v>
+      </c>
+      <c r="Q25">
+        <v>16.3278165786922</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_49/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.7824335898547</v>
+        <v>12.58637481675828</v>
       </c>
       <c r="C2">
-        <v>8.388754784394408</v>
+        <v>8.690079734315702</v>
       </c>
       <c r="D2">
-        <v>12.52786738119789</v>
+        <v>12.54041797908539</v>
       </c>
       <c r="E2">
-        <v>13.89318884738505</v>
+        <v>13.91752792111417</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>25.31868227829739</v>
+        <v>24.08804132513575</v>
       </c>
       <c r="H2">
-        <v>2.039693445856511</v>
+        <v>2.006409602074812</v>
       </c>
       <c r="I2">
-        <v>2.687760557532402</v>
+        <v>2.600871327229547</v>
       </c>
       <c r="J2">
-        <v>9.746747825091626</v>
+        <v>9.924087211521371</v>
       </c>
       <c r="K2">
-        <v>14.62636301703563</v>
+        <v>14.15383386892861</v>
       </c>
       <c r="L2">
-        <v>6.479116850833287</v>
+        <v>12.04888967633242</v>
       </c>
       <c r="M2">
-        <v>11.70623240416587</v>
+        <v>8.893603443903233</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.495696357709965</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.71635488543314</v>
       </c>
       <c r="P2">
-        <v>12.62963486088649</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>16.19805310564465</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.53961734924478</v>
+      </c>
+      <c r="S2">
+        <v>15.85306951553296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.95132387796253</v>
+        <v>11.80476548979913</v>
       </c>
       <c r="C3">
-        <v>7.892991249785533</v>
+        <v>8.100969036140858</v>
       </c>
       <c r="D3">
-        <v>11.97307127276441</v>
+        <v>11.98918909666666</v>
       </c>
       <c r="E3">
-        <v>13.2507586534789</v>
+        <v>13.28214446176558</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>24.86963222979865</v>
+        <v>23.74052706847144</v>
       </c>
       <c r="H3">
-        <v>2.260279592584314</v>
+        <v>2.218659821865362</v>
       </c>
       <c r="I3">
-        <v>2.820652537137915</v>
+        <v>2.719014783343744</v>
       </c>
       <c r="J3">
-        <v>9.743823543773718</v>
+        <v>9.900016592544555</v>
       </c>
       <c r="K3">
-        <v>14.66743916369906</v>
+        <v>14.21865413860286</v>
       </c>
       <c r="L3">
-        <v>6.283665830061869</v>
+        <v>12.18568126494174</v>
       </c>
       <c r="M3">
-        <v>11.00987521411496</v>
+        <v>8.876916905430493</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.304758372121054</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.02332737417154</v>
       </c>
       <c r="P3">
-        <v>12.75881662071065</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>16.0991213990093</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.65829175221455</v>
+      </c>
+      <c r="S3">
+        <v>15.78163844232773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.40794558164304</v>
+        <v>11.29380787448</v>
       </c>
       <c r="C4">
-        <v>7.575812366978631</v>
+        <v>7.722711044151312</v>
       </c>
       <c r="D4">
-        <v>11.62121899970965</v>
+        <v>11.63971715638027</v>
       </c>
       <c r="E4">
-        <v>12.8404371837651</v>
+        <v>12.87654728208387</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>24.59911113861348</v>
+        <v>23.53438968627797</v>
       </c>
       <c r="H4">
-        <v>2.400944852617096</v>
+        <v>2.354061472517168</v>
       </c>
       <c r="I4">
-        <v>2.906157119507666</v>
+        <v>2.795379423426605</v>
       </c>
       <c r="J4">
-        <v>9.744503855774257</v>
+        <v>9.886000549017112</v>
       </c>
       <c r="K4">
-        <v>14.69600927666653</v>
+        <v>14.26070798162577</v>
       </c>
       <c r="L4">
-        <v>6.159756040453252</v>
+        <v>12.27146286397453</v>
       </c>
       <c r="M4">
-        <v>10.55845558060828</v>
+        <v>8.884680880589853</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.183787657314258</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.57407988626387</v>
       </c>
       <c r="P4">
-        <v>12.83974732098356</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>16.04303087902314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.73295445817441</v>
+      </c>
+      <c r="S4">
+        <v>15.74152888134911</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.17314968434138</v>
+        <v>11.07278426536886</v>
       </c>
       <c r="C5">
-        <v>7.452336809596726</v>
+        <v>7.573844655285996</v>
       </c>
       <c r="D5">
-        <v>11.47510339659885</v>
+        <v>11.49462426206624</v>
       </c>
       <c r="E5">
-        <v>12.66922389097873</v>
+        <v>12.70736822487785</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>24.4801737601343</v>
+        <v>23.44210851818701</v>
       </c>
       <c r="H5">
-        <v>2.45980251985021</v>
+        <v>2.410729207829736</v>
       </c>
       <c r="I5">
-        <v>2.944901673635901</v>
+        <v>2.830890230629321</v>
       </c>
       <c r="J5">
-        <v>9.74373829779827</v>
+        <v>9.878799664875558</v>
       </c>
       <c r="K5">
-        <v>14.7041901990698</v>
+        <v>14.27421235361427</v>
       </c>
       <c r="L5">
-        <v>6.108208968010215</v>
+        <v>12.30288014492446</v>
       </c>
       <c r="M5">
-        <v>10.36852213639136</v>
+        <v>8.890096593470794</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.133484398500771</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.38507326928909</v>
       </c>
       <c r="P5">
-        <v>12.87293121234646</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>16.01717897611052</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.7636938127938</v>
+      </c>
+      <c r="S5">
+        <v>15.72197944379442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.12751249954125</v>
+        <v>11.02951315927327</v>
       </c>
       <c r="C6">
-        <v>7.44260252964601</v>
+        <v>7.560386495670865</v>
       </c>
       <c r="D6">
-        <v>11.4505861986432</v>
+        <v>11.47028332204235</v>
       </c>
       <c r="E6">
-        <v>12.64037126157042</v>
+        <v>12.67886599578103</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>24.44817796763746</v>
+        <v>23.41453538700944</v>
       </c>
       <c r="H6">
-        <v>2.469907548118279</v>
+        <v>2.420459428511804</v>
       </c>
       <c r="I6">
-        <v>2.95514654134009</v>
+        <v>2.84127386776394</v>
       </c>
       <c r="J6">
-        <v>9.741626703280547</v>
+        <v>9.875562091232974</v>
       </c>
       <c r="K6">
-        <v>14.70036430842913</v>
+        <v>14.27137693875876</v>
       </c>
       <c r="L6">
-        <v>6.099464111838963</v>
+        <v>12.30325246691922</v>
       </c>
       <c r="M6">
-        <v>10.33659790943458</v>
+        <v>8.888490795114715</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.124953031750941</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.35331111096992</v>
       </c>
       <c r="P6">
-        <v>12.87821593163081</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>16.00788156983474</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.76865796687892</v>
+      </c>
+      <c r="S6">
+        <v>15.71374241247816</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.38842718075515</v>
+        <v>11.2716462755457</v>
       </c>
       <c r="C7">
-        <v>7.603452731975617</v>
+        <v>7.743960783707235</v>
       </c>
       <c r="D7">
-        <v>11.61899334592535</v>
+        <v>11.63730649280446</v>
       </c>
       <c r="E7">
-        <v>12.83762549574456</v>
+        <v>12.87337371698208</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>24.56403205431599</v>
+        <v>23.57733565743352</v>
       </c>
       <c r="H7">
-        <v>2.402406874668505</v>
+        <v>2.355995850684741</v>
       </c>
       <c r="I7">
-        <v>2.916599543037947</v>
+        <v>2.808029130474981</v>
       </c>
       <c r="J7">
-        <v>9.73898522608318</v>
+        <v>9.845166471891961</v>
       </c>
       <c r="K7">
-        <v>14.68183610042543</v>
+        <v>14.24191057393284</v>
       </c>
       <c r="L7">
-        <v>6.158719579833356</v>
+        <v>12.25419463298244</v>
       </c>
       <c r="M7">
-        <v>10.555843532571</v>
+        <v>8.873867737586934</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.182509926132673</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.56720929176367</v>
       </c>
       <c r="P7">
-        <v>12.8395595619599</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>16.02886595475085</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.73287496963397</v>
+      </c>
+      <c r="S7">
+        <v>15.71883552697827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.48269603342335</v>
+        <v>12.29436792033331</v>
       </c>
       <c r="C8">
-        <v>8.256556425970169</v>
+        <v>8.505065549376289</v>
       </c>
       <c r="D8">
-        <v>12.33867251780023</v>
+        <v>12.35181066300255</v>
       </c>
       <c r="E8">
-        <v>13.67443211963739</v>
+        <v>13.69994560733693</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>25.11958179107228</v>
+        <v>24.17834116218765</v>
       </c>
       <c r="H8">
-        <v>2.115517316663631</v>
+        <v>2.080975307698234</v>
       </c>
       <c r="I8">
-        <v>2.745500368211341</v>
+        <v>2.657279870394225</v>
       </c>
       <c r="J8">
-        <v>9.737994943548886</v>
+        <v>9.793704472433291</v>
       </c>
       <c r="K8">
-        <v>14.62099969112165</v>
+        <v>14.14091140030119</v>
       </c>
       <c r="L8">
-        <v>6.412133924017914</v>
+        <v>12.0658020997115</v>
       </c>
       <c r="M8">
-        <v>11.47100966974287</v>
+        <v>8.860825511246057</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.42943899701668</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.46902806287822</v>
       </c>
       <c r="P8">
-        <v>12.67323110053817</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>16.14491908670019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.57993026370537</v>
+      </c>
+      <c r="S8">
+        <v>15.78120387299211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.39338145741982</v>
+        <v>14.09102077484965</v>
       </c>
       <c r="C9">
-        <v>9.387650179328524</v>
+        <v>9.843857845087507</v>
       </c>
       <c r="D9">
-        <v>13.65530684569333</v>
+        <v>13.66043414444313</v>
       </c>
       <c r="E9">
-        <v>15.18506062037639</v>
+        <v>15.19491112526892</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>26.3048217161945</v>
+        <v>25.18314246694059</v>
       </c>
       <c r="H9">
-        <v>1.592526416209944</v>
+        <v>1.578305070432017</v>
       </c>
       <c r="I9">
-        <v>2.531642413661113</v>
+        <v>2.591449970048702</v>
       </c>
       <c r="J9">
-        <v>9.766040082279178</v>
+        <v>9.834268207121974</v>
       </c>
       <c r="K9">
-        <v>14.55473533591243</v>
+        <v>14.00439808661696</v>
       </c>
       <c r="L9">
-        <v>6.877333600729667</v>
+        <v>11.74805737372832</v>
       </c>
       <c r="M9">
-        <v>13.07521847820566</v>
+        <v>9.005328497790495</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.884189506732305</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.06360766536308</v>
       </c>
       <c r="P9">
-        <v>12.36026944064793</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>16.43444151444475</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.2946965785615</v>
+      </c>
+      <c r="S9">
+        <v>15.99009383636757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.61036792334559</v>
+        <v>15.22404308989642</v>
       </c>
       <c r="C10">
-        <v>10.12678034954859</v>
+        <v>10.67724501969905</v>
       </c>
       <c r="D10">
-        <v>14.42123610647265</v>
+        <v>14.42049806221486</v>
       </c>
       <c r="E10">
-        <v>15.95747241591698</v>
+        <v>15.95605841843999</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>27.01490017246543</v>
+        <v>26.20578726448145</v>
       </c>
       <c r="H10">
-        <v>1.869659093557767</v>
+        <v>1.86761847291685</v>
       </c>
       <c r="I10">
-        <v>2.743497913072894</v>
+        <v>2.779494216079209</v>
       </c>
       <c r="J10">
-        <v>9.769631392190536</v>
+        <v>9.650012290192906</v>
       </c>
       <c r="K10">
-        <v>14.47388293733269</v>
+        <v>13.84451586405004</v>
       </c>
       <c r="L10">
-        <v>7.093320895858718</v>
+        <v>11.4724244907455</v>
       </c>
       <c r="M10">
-        <v>14.10836411698405</v>
+        <v>9.134004459987985</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.092321761441692</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.07071249519469</v>
       </c>
       <c r="P10">
-        <v>12.13937364921504</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>16.59505511437114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.09867998728724</v>
+      </c>
+      <c r="S10">
+        <v>16.0447021735046</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.91687454016614</v>
+        <v>15.50563149201938</v>
       </c>
       <c r="C11">
-        <v>10.1408426773534</v>
+        <v>10.60902668912089</v>
       </c>
       <c r="D11">
-        <v>13.58267292139536</v>
+        <v>13.57917601470601</v>
       </c>
       <c r="E11">
-        <v>14.15376165861936</v>
+        <v>14.14669494141717</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>25.87618454369431</v>
+        <v>26.0024754003004</v>
       </c>
       <c r="H11">
-        <v>2.78278904554942</v>
+        <v>2.776344702232647</v>
       </c>
       <c r="I11">
-        <v>2.805083629800514</v>
+        <v>2.833606642556207</v>
       </c>
       <c r="J11">
-        <v>9.526720667904176</v>
+        <v>9.074469676544721</v>
       </c>
       <c r="K11">
-        <v>14.04403417830033</v>
+        <v>13.39076756414635</v>
       </c>
       <c r="L11">
-        <v>6.34382047836591</v>
+        <v>11.09311751343825</v>
       </c>
       <c r="M11">
-        <v>14.3117965932601</v>
+        <v>8.868660020661316</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.338703499742864</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.23076999824826</v>
       </c>
       <c r="P11">
-        <v>12.0674802981439</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>16.05125983440602</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.05890473082642</v>
+      </c>
+      <c r="S11">
+        <v>15.41966835592728</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.94762627306356</v>
+        <v>15.54048840976712</v>
       </c>
       <c r="C12">
-        <v>9.966155637749754</v>
+        <v>10.36433694970804</v>
       </c>
       <c r="D12">
-        <v>12.7059988235614</v>
+        <v>12.70178193922806</v>
       </c>
       <c r="E12">
-        <v>12.49525124845248</v>
+        <v>12.48623579599188</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>24.793803565706</v>
+        <v>25.37484297614374</v>
       </c>
       <c r="H12">
-        <v>4.074382928380274</v>
+        <v>4.069237137889523</v>
       </c>
       <c r="I12">
-        <v>2.810036392165353</v>
+        <v>2.836351810388914</v>
       </c>
       <c r="J12">
-        <v>9.32642871411946</v>
+        <v>8.776942153147699</v>
       </c>
       <c r="K12">
-        <v>13.71982041121915</v>
+        <v>13.08331213477859</v>
       </c>
       <c r="L12">
-        <v>5.757996044124006</v>
+        <v>10.86807348616066</v>
       </c>
       <c r="M12">
-        <v>14.27291069376513</v>
+        <v>8.640806675838318</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.751441360704045</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.17229212809477</v>
       </c>
       <c r="P12">
-        <v>12.06352065112132</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>15.57168900907376</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.07609962570943</v>
+      </c>
+      <c r="S12">
+        <v>14.92729800968004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.75067665927363</v>
+        <v>15.37614327578809</v>
       </c>
       <c r="C13">
-        <v>9.665776289239783</v>
+        <v>10.01190338338626</v>
       </c>
       <c r="D13">
-        <v>11.72611378733838</v>
+        <v>11.72292867858923</v>
       </c>
       <c r="E13">
-        <v>10.83083087547464</v>
+        <v>10.82356156371482</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>23.6281339078388</v>
+        <v>24.13547404739227</v>
       </c>
       <c r="H13">
-        <v>5.460754911936474</v>
+        <v>5.463114115031523</v>
       </c>
       <c r="I13">
-        <v>2.777034947381666</v>
+        <v>2.807342411805661</v>
       </c>
       <c r="J13">
-        <v>9.13844340773294</v>
+        <v>8.685797861082039</v>
       </c>
       <c r="K13">
-        <v>13.43615986500053</v>
+        <v>12.85766124557682</v>
       </c>
       <c r="L13">
-        <v>5.285313056323446</v>
+        <v>10.72727164616008</v>
       </c>
       <c r="M13">
-        <v>14.04457858486994</v>
+        <v>8.424054170875902</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.280154474696872</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.94928822929734</v>
       </c>
       <c r="P13">
-        <v>12.10825785611672</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>15.09015256286911</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.1299418960984</v>
+      </c>
+      <c r="S13">
+        <v>14.50284553180017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.50341584116082</v>
+        <v>15.16486373773611</v>
       </c>
       <c r="C14">
-        <v>9.401939785217992</v>
+        <v>9.718241814040066</v>
       </c>
       <c r="D14">
-        <v>10.98490026135654</v>
+        <v>10.98323786713314</v>
       </c>
       <c r="E14">
-        <v>9.6782788708514</v>
+        <v>9.674284415577466</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>22.76402478502424</v>
+        <v>22.99516651444453</v>
       </c>
       <c r="H14">
-        <v>6.49181688201887</v>
+        <v>6.492887216476179</v>
       </c>
       <c r="I14">
-        <v>2.73821481735567</v>
+        <v>2.774412286810561</v>
       </c>
       <c r="J14">
-        <v>9.011984629376887</v>
+        <v>8.69766259083684</v>
       </c>
       <c r="K14">
-        <v>13.25480289334397</v>
+        <v>12.73251160678623</v>
       </c>
       <c r="L14">
-        <v>5.04076435637094</v>
+        <v>10.66008265810357</v>
       </c>
       <c r="M14">
-        <v>13.79624707731702</v>
+        <v>8.277401424555823</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.038044349403961</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.71564838612351</v>
       </c>
       <c r="P14">
-        <v>12.16178700463338</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>14.75027293061969</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.18297567769065</v>
+      </c>
+      <c r="S14">
+        <v>14.23130730062975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.38840516261053</v>
+        <v>15.06445766365002</v>
       </c>
       <c r="C15">
-        <v>9.318459698675738</v>
+        <v>9.630333172947864</v>
       </c>
       <c r="D15">
-        <v>10.78169341577855</v>
+        <v>10.78078934021004</v>
       </c>
       <c r="E15">
-        <v>9.393458132474112</v>
+        <v>9.391257901450244</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>22.52727674270468</v>
+        <v>22.59814896591342</v>
       </c>
       <c r="H15">
-        <v>6.730678786306372</v>
+        <v>6.731247541437528</v>
       </c>
       <c r="I15">
-        <v>2.722084470398387</v>
+        <v>2.761551509219819</v>
       </c>
       <c r="J15">
-        <v>8.982629053871555</v>
+        <v>8.732418308416054</v>
       </c>
       <c r="K15">
-        <v>13.21527304686574</v>
+        <v>12.71341025813824</v>
       </c>
       <c r="L15">
-        <v>4.992835686950222</v>
+        <v>10.65516813111231</v>
       </c>
       <c r="M15">
-        <v>13.69416902337094</v>
+        <v>8.241432339602014</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>4.991359426942415</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.62190439928665</v>
       </c>
       <c r="P15">
-        <v>12.18402704838706</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>14.66396109239592</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.2023104924895</v>
+      </c>
+      <c r="S15">
+        <v>14.17353921621967</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.90921733623613</v>
+        <v>14.63592034355293</v>
       </c>
       <c r="C16">
-        <v>9.067947692099466</v>
+        <v>9.397731604663576</v>
       </c>
       <c r="D16">
-        <v>10.60401589436804</v>
+        <v>10.60663946495086</v>
       </c>
       <c r="E16">
-        <v>9.319518151342814</v>
+        <v>9.325863484076228</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>22.41063344959357</v>
+        <v>21.73290326121767</v>
       </c>
       <c r="H16">
-        <v>6.524920299135323</v>
+        <v>6.523102068270576</v>
       </c>
       <c r="I16">
-        <v>2.641555966996077</v>
+        <v>2.693938454416778</v>
       </c>
       <c r="J16">
-        <v>9.01592885019941</v>
+        <v>9.034714701603667</v>
       </c>
       <c r="K16">
-        <v>13.30076611893793</v>
+        <v>12.85368824374943</v>
       </c>
       <c r="L16">
-        <v>4.979818547464481</v>
+        <v>10.78872749743602</v>
       </c>
       <c r="M16">
-        <v>13.30135888085234</v>
+        <v>8.268769246778032</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>4.984031103222814</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.26888271125958</v>
       </c>
       <c r="P16">
-        <v>12.26101428374689</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>14.68110247879249</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.25562827145822</v>
+      </c>
+      <c r="S16">
+        <v>14.28947753146882</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.6708423325022</v>
+        <v>14.41343368769656</v>
       </c>
       <c r="C17">
-        <v>9.020330004469731</v>
+        <v>9.372396553963783</v>
       </c>
       <c r="D17">
-        <v>10.87467276065311</v>
+        <v>10.87898689314884</v>
       </c>
       <c r="E17">
-        <v>9.877716005696129</v>
+        <v>9.887806011129726</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>22.78730318727273</v>
+        <v>21.78758326406021</v>
       </c>
       <c r="H17">
-        <v>5.787601484386148</v>
+        <v>5.784107598432322</v>
       </c>
       <c r="I17">
-        <v>2.600446813231151</v>
+        <v>2.659255957762423</v>
       </c>
       <c r="J17">
-        <v>9.10850939420448</v>
+        <v>9.241367518965022</v>
       </c>
       <c r="K17">
-        <v>13.46126796468037</v>
+        <v>13.02297921254413</v>
       </c>
       <c r="L17">
-        <v>5.083795001264602</v>
+        <v>10.93110971822738</v>
       </c>
       <c r="M17">
-        <v>13.13206666490995</v>
+        <v>8.359572311914157</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.090633186151759</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.11723054959285</v>
       </c>
       <c r="P17">
-        <v>12.29283503065862</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>14.87524628064138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.27317129494731</v>
+      </c>
+      <c r="S17">
+        <v>14.51391372475697</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.63196697394508</v>
+        <v>14.36648883139173</v>
       </c>
       <c r="C18">
-        <v>9.12708376698372</v>
+        <v>9.519364608344995</v>
       </c>
       <c r="D18">
-        <v>11.56530186476695</v>
+        <v>11.57005122876805</v>
       </c>
       <c r="E18">
-        <v>11.10683149417101</v>
+        <v>11.11732240088996</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>23.65192450776409</v>
+        <v>22.48782622407789</v>
       </c>
       <c r="H18">
-        <v>4.527833149571163</v>
+        <v>4.522887486732046</v>
       </c>
       <c r="I18">
-        <v>2.585508477429132</v>
+        <v>2.64508046958548</v>
       </c>
       <c r="J18">
-        <v>9.266267003508432</v>
+        <v>9.439155007353172</v>
       </c>
       <c r="K18">
-        <v>13.71648158271464</v>
+        <v>13.25797288318016</v>
       </c>
       <c r="L18">
-        <v>5.388583359025866</v>
+        <v>11.11436168979608</v>
       </c>
       <c r="M18">
-        <v>13.14257483042439</v>
+        <v>8.526538525056065</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.395921591131761</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.13514906967978</v>
       </c>
       <c r="P18">
-        <v>12.29287519209218</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>15.25295023580008</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.26225647092846</v>
+      </c>
+      <c r="S18">
+        <v>14.88449979014634</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.73349106294243</v>
+        <v>14.44363651776871</v>
       </c>
       <c r="C19">
-        <v>9.394513204658303</v>
+        <v>9.844379736550206</v>
       </c>
       <c r="D19">
-        <v>12.5369959545941</v>
+        <v>12.54124734477706</v>
       </c>
       <c r="E19">
-        <v>12.83454031596646</v>
+        <v>12.84334812945236</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>24.78865478697791</v>
+        <v>23.53224046850562</v>
       </c>
       <c r="H19">
-        <v>3.019833431052509</v>
+        <v>3.013434973787934</v>
       </c>
       <c r="I19">
-        <v>2.604786039088886</v>
+        <v>2.66309219448431</v>
       </c>
       <c r="J19">
-        <v>9.457013005043486</v>
+        <v>9.629656926212245</v>
       </c>
       <c r="K19">
-        <v>14.01136915413161</v>
+        <v>13.51501015337474</v>
       </c>
       <c r="L19">
-        <v>5.936367299116306</v>
+        <v>11.30718017272428</v>
       </c>
       <c r="M19">
-        <v>13.2978581713259</v>
+        <v>8.7292574636558</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.942625648400273</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.2920485187049</v>
       </c>
       <c r="P19">
-        <v>12.27480731319424</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>15.73004797444147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.23525795544421</v>
+      </c>
+      <c r="S19">
+        <v>15.332000633495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.26064344247222</v>
+        <v>14.90426744273971</v>
       </c>
       <c r="C20">
-        <v>10.00683790934811</v>
+        <v>10.55629753953234</v>
       </c>
       <c r="D20">
-        <v>14.21700655302545</v>
+        <v>14.21831220633577</v>
       </c>
       <c r="E20">
-        <v>15.74621360376485</v>
+        <v>15.74871782862128</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>26.72499518253332</v>
+        <v>25.57098607769926</v>
       </c>
       <c r="H20">
-        <v>1.778006923742616</v>
+        <v>1.781600059252382</v>
       </c>
       <c r="I20">
-        <v>2.70039702071989</v>
+        <v>2.747396125039799</v>
       </c>
       <c r="J20">
-        <v>9.749986544493057</v>
+        <v>9.79852641992289</v>
       </c>
       <c r="K20">
-        <v>14.44830451353172</v>
+        <v>13.86021961473288</v>
       </c>
       <c r="L20">
-        <v>7.032043570103476</v>
+        <v>11.52559100626779</v>
       </c>
       <c r="M20">
-        <v>13.84327538635574</v>
+        <v>9.074179504522542</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.033806883824059</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.8244546242776</v>
       </c>
       <c r="P20">
-        <v>12.19668660759381</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>16.50731812849665</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.1498025793256</v>
+      </c>
+      <c r="S20">
+        <v>16.0158478477264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.19151301605961</v>
+        <v>15.72610747042674</v>
       </c>
       <c r="C21">
-        <v>10.59755876616268</v>
+        <v>11.12078611388364</v>
       </c>
       <c r="D21">
-        <v>14.99551896578587</v>
+        <v>14.98985461627856</v>
       </c>
       <c r="E21">
-        <v>16.70295814061434</v>
+        <v>16.69221765381897</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>27.55150872863776</v>
+        <v>28.01396913103735</v>
       </c>
       <c r="H21">
-        <v>2.051562162454783</v>
+        <v>2.035612252140597</v>
       </c>
       <c r="I21">
-        <v>2.864380134206159</v>
+        <v>2.88589936809779</v>
       </c>
       <c r="J21">
-        <v>9.803475006539189</v>
+        <v>9.12678226455815</v>
       </c>
       <c r="K21">
-        <v>14.46940362529391</v>
+        <v>13.71585819505508</v>
       </c>
       <c r="L21">
-        <v>7.353294429895933</v>
+        <v>11.30566152189869</v>
       </c>
       <c r="M21">
-        <v>14.64312164034293</v>
+        <v>9.170179115056632</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.34568834434724</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.5432127371268</v>
       </c>
       <c r="P21">
-        <v>12.02675715205947</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>16.75514019153688</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.00268175330609</v>
+      </c>
+      <c r="S21">
+        <v>16.01538517524073</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.77478326426649</v>
+        <v>16.24029110353055</v>
       </c>
       <c r="C22">
-        <v>10.9240440124072</v>
+        <v>11.41927548628757</v>
       </c>
       <c r="D22">
-        <v>15.42097976985376</v>
+        <v>15.41103070691777</v>
       </c>
       <c r="E22">
-        <v>17.18212957706816</v>
+        <v>17.16335038471085</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>28.04718313823453</v>
+        <v>29.68569936356993</v>
       </c>
       <c r="H22">
-        <v>2.220312756728219</v>
+        <v>2.192022375976431</v>
       </c>
       <c r="I22">
-        <v>2.962995789394816</v>
+        <v>2.967058434639814</v>
       </c>
       <c r="J22">
-        <v>9.833862301561503</v>
+        <v>8.700804228783205</v>
       </c>
       <c r="K22">
-        <v>14.48294657059415</v>
+        <v>13.61339808195573</v>
       </c>
       <c r="L22">
-        <v>7.505613324176347</v>
+        <v>11.15956755173298</v>
       </c>
       <c r="M22">
-        <v>15.13001242281594</v>
+        <v>9.234832938382425</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.492261972839167</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.97519406695806</v>
       </c>
       <c r="P22">
-        <v>11.9177359264616</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>16.90278290790347</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>11.91092701150628</v>
+      </c>
+      <c r="S22">
+        <v>15.98912086487121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.48004670975979</v>
+        <v>15.98777473988401</v>
       </c>
       <c r="C23">
-        <v>10.72519601963503</v>
+        <v>11.24891524755757</v>
       </c>
       <c r="D23">
-        <v>15.19533711427256</v>
+        <v>15.18794203020917</v>
       </c>
       <c r="E23">
-        <v>16.92832974056343</v>
+        <v>16.91433658638291</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>27.81719658129546</v>
+        <v>28.6320271335291</v>
       </c>
       <c r="H23">
-        <v>2.131209982508872</v>
+        <v>2.110288484344476</v>
       </c>
       <c r="I23">
-        <v>2.90601239091016</v>
+        <v>2.918703820708502</v>
       </c>
       <c r="J23">
-        <v>9.823627536985221</v>
+        <v>8.996102461925901</v>
       </c>
       <c r="K23">
-        <v>14.49183911933955</v>
+        <v>13.69622754201021</v>
       </c>
       <c r="L23">
-        <v>7.42499831374909</v>
+        <v>11.25539771199774</v>
       </c>
       <c r="M23">
-        <v>14.87217343930197</v>
+        <v>9.224649946403769</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.415070010124958</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.75486045129812</v>
       </c>
       <c r="P23">
-        <v>11.97579169795757</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>16.8387740776899</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>11.95801339204097</v>
+      </c>
+      <c r="S23">
+        <v>16.03976224876881</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.2862330336731</v>
+        <v>14.92801990419388</v>
       </c>
       <c r="C24">
-        <v>9.987676397715141</v>
+        <v>10.54143508614251</v>
       </c>
       <c r="D24">
-        <v>14.31404435816346</v>
+        <v>14.31532283440483</v>
       </c>
       <c r="E24">
-        <v>15.93310686464229</v>
+        <v>15.93554806091571</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>26.89723014097888</v>
+        <v>25.72416515723075</v>
       </c>
       <c r="H24">
-        <v>1.785030274204432</v>
+        <v>1.788564464419329</v>
       </c>
       <c r="I24">
-        <v>2.693506921901471</v>
+        <v>2.738197506944274</v>
       </c>
       <c r="J24">
-        <v>9.780627464345841</v>
+        <v>9.833082796046643</v>
       </c>
       <c r="K24">
-        <v>14.50782697682203</v>
+        <v>13.91510536256344</v>
       </c>
       <c r="L24">
-        <v>7.110801930486509</v>
+        <v>11.56680868880048</v>
       </c>
       <c r="M24">
-        <v>13.85274329447332</v>
+        <v>9.116830715414789</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.112517115575792</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.83455822629118</v>
       </c>
       <c r="P24">
-        <v>12.19811708400604</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>16.58218434270275</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.14898503843738</v>
+      </c>
+      <c r="S24">
+        <v>16.08861547886938</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.8795948743987</v>
+        <v>13.61013832440558</v>
       </c>
       <c r="C25">
-        <v>9.137606770812113</v>
+        <v>9.551475597612816</v>
       </c>
       <c r="D25">
-        <v>13.3096862233982</v>
+        <v>13.31709503169676</v>
       </c>
       <c r="E25">
-        <v>14.79033885550474</v>
+        <v>14.80461489562284</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>25.92371863672408</v>
+        <v>24.74164183942361</v>
       </c>
       <c r="H25">
-        <v>1.730824252338136</v>
+        <v>1.710528991526619</v>
       </c>
       <c r="I25">
-        <v>2.526778331895546</v>
+        <v>2.528272910575903</v>
       </c>
       <c r="J25">
-        <v>9.74645019562071</v>
+        <v>9.861523867036844</v>
       </c>
       <c r="K25">
-        <v>14.54401848647228</v>
+        <v>14.02192232577704</v>
       </c>
       <c r="L25">
-        <v>6.754596712458509</v>
+        <v>11.81929196730663</v>
       </c>
       <c r="M25">
-        <v>12.66164938891449</v>
+        <v>8.93770686064506</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.764475670988214</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.65780857339962</v>
       </c>
       <c r="P25">
-        <v>12.44318852398406</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>16.3278165786922</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.37041622581384</v>
+      </c>
+      <c r="S25">
+        <v>15.91842542476768</v>
       </c>
     </row>
   </sheetData>
